--- a/EO-EC-TA-full/C3-full.xlsx
+++ b/EO-EC-TA-full/C3-full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO.EC.TA.full\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5087D-AF25-468E-BA03-1EA2C35F54AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4D396-3F9F-41E4-A4F3-FF0E8E7BB3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C74DB62D-9B8B-400B-A18B-041F967F7AE6}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0A301-84FD-4B0D-BD10-769110D8A3F7}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="O117" sqref="O117"/>
+    <sheetView tabSelected="1" zoomScale="32" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>33.627634968346158</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7.9420869846148623</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.8643039538541064</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.5335034637386551</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.6135397240905069</v>
+      <c r="B2" s="4">
+        <v>16.638428414340972</v>
+      </c>
+      <c r="C2" s="4">
+        <v>12.296358392815041</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.6155302533272513</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.3547798530955442</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.97898419168339168</v>
       </c>
       <c r="G2">
-        <v>54.581069094644292</v>
+        <v>36.884081105262197</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -568,22 +568,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>110.9290636056121</v>
+        <v>14.69717123669424</v>
       </c>
       <c r="C3" s="3">
-        <v>32.595250851775262</v>
+        <v>48.998984692589808</v>
       </c>
       <c r="D3" s="3">
-        <v>19.712916818244722</v>
+        <v>4.4278568507447833</v>
       </c>
       <c r="E3" s="3">
-        <v>6.2290577337114934</v>
+        <v>2.4538753856833511</v>
       </c>
       <c r="F3" s="3">
-        <v>2.9743577526930758</v>
+        <v>2.7801273218864822</v>
       </c>
       <c r="G3">
-        <v>172.44064676203661</v>
+        <v>73.358015487598664</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,36 +592,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>18.471955147860829</v>
-      </c>
-      <c r="C4" s="3">
-        <v>11.88439301353168</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7.0225356864780331</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.5990033178587191</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.0860087293689888</v>
+      <c r="B4" s="4">
+        <v>18.85112832848753</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.1180829052251351</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.308291674305575</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.5973306227482058</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.9547702413696522</v>
       </c>
       <c r="G4">
-        <v>44.063895895098241</v>
+        <v>34.829603772136089</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,36 +630,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>13.95620395730556</v>
-      </c>
-      <c r="C5" s="3">
-        <v>88.316131755071893</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10.5352348522685</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.45398842315698</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.5940492997169562</v>
+      <c r="B5" s="4">
+        <v>54.279862453403773</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17.482557018333811</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.8855586234365633</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.6165399362781412</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.5544107034864709</v>
       </c>
       <c r="G5">
-        <v>119.8556082875199</v>
+        <v>80.818928734938766</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -668,36 +668,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>33.42736554168718</v>
-      </c>
-      <c r="C6" s="3">
-        <v>12.365853138639849</v>
-      </c>
-      <c r="D6" s="3">
-        <v>20.072143264683621</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.1102246901019708</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.6035805188807131</v>
+      <c r="B6" s="4">
+        <v>21.200382706331141</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.0245648356830461</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.3688057165425889</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.6462947519658231</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.800358833247502</v>
       </c>
       <c r="G6">
-        <v>73.579167153993325</v>
+        <v>35.0404068437701</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -720,22 +720,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>24.049369091564969</v>
+        <v>16.205734092690189</v>
       </c>
       <c r="C7" s="3">
-        <v>11.78101516647121</v>
+        <v>48.387583219841588</v>
       </c>
       <c r="D7" s="3">
-        <v>12.85258965305945</v>
+        <v>6.8563419385998161</v>
       </c>
       <c r="E7" s="3">
-        <v>4.9259039123769401</v>
+        <v>2.6725896520123138</v>
       </c>
       <c r="F7" s="3">
-        <v>3.765068088994596</v>
+        <v>2.7082836470380842</v>
       </c>
       <c r="G7">
-        <v>57.373945912467157</v>
+        <v>76.830532550182014</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -758,22 +758,22 @@
         <v>11</v>
       </c>
       <c r="B8" s="3">
-        <v>57.186515190639099</v>
+        <v>31.399973396890111</v>
       </c>
       <c r="C8" s="3">
-        <v>12.87237589599297</v>
+        <v>8.3416516488347501</v>
       </c>
       <c r="D8" s="3">
-        <v>34.042132897218437</v>
+        <v>9.5266614854637837</v>
       </c>
       <c r="E8" s="3">
-        <v>6.8329039537475538</v>
+        <v>2.8764171647111518</v>
       </c>
       <c r="F8" s="3">
-        <v>3.8750198146132728</v>
+        <v>3.3291705436620682</v>
       </c>
       <c r="G8">
-        <v>114.8089477522114</v>
+        <v>55.473874239561873</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -796,22 +796,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>23.763490068338061</v>
+        <v>13.876474587072209</v>
       </c>
       <c r="C9" s="3">
-        <v>15.879622991038371</v>
+        <v>5.0507207146858839</v>
       </c>
       <c r="D9" s="3">
-        <v>76.896955709476529</v>
+        <v>5.2945949991920198</v>
       </c>
       <c r="E9" s="3">
-        <v>8.4000444258687406</v>
+        <v>2.8852640652671671</v>
       </c>
       <c r="F9" s="3">
-        <v>3.946532748888258</v>
+        <v>3.712299500273994</v>
       </c>
       <c r="G9">
-        <v>128.88664594361001</v>
+        <v>30.819353866491269</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,36 +820,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <v>28.649321282317182</v>
-      </c>
-      <c r="C10" s="3">
-        <v>16.443520879614962</v>
-      </c>
-      <c r="D10" s="3">
-        <v>58.804086639918637</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.9186030215297558</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.0505844667415278</v>
+      <c r="B10" s="4">
+        <v>21.90867720824642</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30.086532839389779</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.0838146622617861</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.1732671764660569</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.1371406136041871</v>
       </c>
       <c r="G10">
-        <v>114.86611629012209</v>
+        <v>61.38943249996823</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,36 +858,36 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>10.92828334811577</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.224936602700053</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10.090971770442961</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.0731393874601114</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.3111322397239134</v>
+      <c r="B11" s="4">
+        <v>26.461833838799269</v>
+      </c>
+      <c r="C11" s="4">
+        <v>14.47893738775617</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.8392898847150976</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.271996619371726</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.2378734183225819</v>
       </c>
       <c r="G11">
-        <v>39.628463348442821</v>
+        <v>54.28993114896484</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -910,22 +910,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>27.54365757693812</v>
+        <v>19.916356522370769</v>
       </c>
       <c r="C12" s="3">
-        <v>31.371032838350452</v>
+        <v>102.31203093227199</v>
       </c>
       <c r="D12" s="3">
-        <v>37.409905598042883</v>
+        <v>6.5690601672382556</v>
       </c>
       <c r="E12" s="3">
-        <v>7.1003345397552033</v>
+        <v>3.388195631516727</v>
       </c>
       <c r="F12" s="3">
-        <v>5.2867586449473407</v>
+        <v>5.6339590758399236</v>
       </c>
       <c r="G12">
-        <v>108.71168919803399</v>
+        <v>137.81960232923771</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -948,22 +948,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>25.97279721097269</v>
+        <v>13.95620395730556</v>
       </c>
       <c r="C13" s="3">
-        <v>8.515318834340011</v>
+        <v>88.316131755071893</v>
       </c>
       <c r="D13" s="3">
-        <v>30.383529839030981</v>
+        <v>10.5352348522685</v>
       </c>
       <c r="E13" s="3">
-        <v>11.38928748056574</v>
+        <v>3.45398842315698</v>
       </c>
       <c r="F13" s="3">
-        <v>5.3841538619999882</v>
+        <v>3.5940492997169562</v>
       </c>
       <c r="G13">
-        <v>81.645087226909425</v>
+        <v>119.8556082875199</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -986,22 +986,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>5.8388708334935977</v>
+        <v>22.239827866502441</v>
       </c>
       <c r="C14" s="3">
-        <v>41.071357495610933</v>
+        <v>9.5904112734464846</v>
       </c>
       <c r="D14" s="3">
-        <v>4.5579248712000018</v>
+        <v>7.366513914103324</v>
       </c>
       <c r="E14" s="3">
-        <v>4.2410919988556506</v>
+        <v>3.5809995905753569</v>
       </c>
       <c r="F14" s="3">
-        <v>6.1723077968000979</v>
+        <v>3.606750210696823</v>
       </c>
       <c r="G14">
-        <v>61.881552995960277</v>
+        <v>46.384502855324442</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,36 +1010,36 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
-        <v>8.7335132784454395</v>
-      </c>
-      <c r="C15" s="3">
-        <v>65.782685842392368</v>
-      </c>
-      <c r="D15" s="3">
-        <v>9.6996041127672541</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.155122887745188</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6.460817885156116</v>
+      <c r="B15" s="4">
+        <v>32.241650375352577</v>
+      </c>
+      <c r="C15" s="4">
+        <v>16.946774069368889</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.317932907086675</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.5818916557564329</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.2729540221245159</v>
       </c>
       <c r="G15">
-        <v>94.831744006506341</v>
+        <v>63.361203029689108</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,22 +1062,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>67.717554197469127</v>
+        <v>18.471955147860829</v>
       </c>
       <c r="C16" s="3">
-        <v>96.632527017132475</v>
+        <v>11.88439301353168</v>
       </c>
       <c r="D16" s="3">
-        <v>12.6368185764789</v>
+        <v>7.0225356864780331</v>
       </c>
       <c r="E16" s="3">
-        <v>8.8266803022236591</v>
+        <v>3.5990033178587191</v>
       </c>
       <c r="F16" s="3">
-        <v>6.5204369940561699</v>
+        <v>3.0860087293689888</v>
       </c>
       <c r="G16">
-        <v>192.33401708736031</v>
+        <v>44.063895895098241</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1099,23 +1099,23 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="3">
-        <v>10.79379924369705</v>
-      </c>
-      <c r="C17" s="3">
-        <v>133.93078015213479</v>
-      </c>
-      <c r="D17" s="3">
-        <v>31.381596388588491</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5.4504883847230703</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6.9066565755468652</v>
+      <c r="B17" s="4">
+        <v>12.29393690778666</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16.564987350913121</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16.776882957380241</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.7827564818164872</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.075903565790572</v>
       </c>
       <c r="G17">
-        <v>188.46332074469029</v>
+        <v>51.494467263687078</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>6.928251390750404</v>
+        <v>148.61865633933331</v>
       </c>
       <c r="C18" s="3">
-        <v>57.219566043080228</v>
+        <v>14.017036084068531</v>
       </c>
       <c r="D18" s="3">
-        <v>25.66176652427114</v>
+        <v>10.618816734520029</v>
       </c>
       <c r="E18" s="3">
-        <v>5.1879303235992076</v>
+        <v>3.8964276992631039</v>
       </c>
       <c r="F18" s="3">
-        <v>7.0610118605309653</v>
+        <v>2.4944582893298448</v>
       </c>
       <c r="G18">
-        <v>102.0585261422319</v>
+        <v>179.64539514651489</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1176,22 +1176,22 @@
         <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>35.262792651458398</v>
+        <v>30.43748228036252</v>
       </c>
       <c r="C19" s="3">
-        <v>25.711625262594328</v>
+        <v>7.3924907467148042</v>
       </c>
       <c r="D19" s="3">
-        <v>89.904643136989449</v>
+        <v>3.968041810694459</v>
       </c>
       <c r="E19" s="3">
-        <v>16.538464876408199</v>
+        <v>3.91968469406067</v>
       </c>
       <c r="F19" s="3">
-        <v>7.3216764304599362</v>
+        <v>2.5837311099249529</v>
       </c>
       <c r="G19">
-        <v>174.7392023579103</v>
+        <v>48.301430641757413</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K19" s="3">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1214,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>7.44362224298097</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C20" s="3">
-        <v>83.601389809829726</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D20" s="3">
-        <v>14.78855717128655</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E20" s="3">
-        <v>4.9958054462029189</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F20" s="3">
-        <v>7.5000556765767481</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G20">
-        <v>118.3294303468769</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1252,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>6.4696242629063727</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C21" s="3">
-        <v>73.746132356369316</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D21" s="3">
-        <v>25.730070653975531</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E21" s="3">
-        <v>6.073213224070714</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F21" s="3">
-        <v>8.2578574849678645</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G21">
-        <v>120.2768979822898</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1290,22 +1290,22 @@
         <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>11.9426704624422</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C22" s="3">
-        <v>104.8845396795604</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D22" s="3">
-        <v>72.58049326521234</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E22" s="3">
-        <v>7.0632837606276686</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F22" s="3">
-        <v>8.718805124883275</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G22">
-        <v>205.18979229272591</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>2002.004891358356</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C23" s="3">
-        <v>182.9157722936402</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D23" s="3">
-        <v>63.242548790417374</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E23" s="3">
-        <v>14.258293106577529</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F23" s="3">
-        <v>41.669050399890907</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G23">
-        <v>2304.090555948882</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1366,22 +1366,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>25.499504139653581</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C24" s="3">
-        <v>8.5740752211700499</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D24" s="3">
-        <v>3.9503226257911841</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E24" s="3">
-        <v>5.0060921953189528</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F24" s="3">
-        <v>5.2275175026122236</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G24">
-        <v>48.257511684546003</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1404,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>30.43748228036252</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C25" s="3">
-        <v>7.3924907467148042</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D25" s="3">
-        <v>3.968041810694459</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E25" s="3">
-        <v>3.91968469406067</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F25" s="3">
-        <v>2.5837311099249529</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G25">
-        <v>48.301430641757413</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1442,22 +1442,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>14.69717123669424</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C26" s="3">
-        <v>48.998984692589808</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D26" s="3">
-        <v>4.4278568507447833</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E26" s="3">
-        <v>2.4538753856833511</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F26" s="3">
-        <v>2.7801273218864822</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G26">
-        <v>73.358015487598664</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1480,22 +1480,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>26.042834260367361</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C27" s="3">
-        <v>12.922332945250551</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D27" s="3">
-        <v>5.2217095003244793</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E27" s="3">
-        <v>4.3225530541025847</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F27" s="3">
-        <v>4.2183655696375038</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G27">
-        <v>52.727795329682479</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1518,22 +1518,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>13.876474587072209</v>
+        <v>21.694784742639271</v>
       </c>
       <c r="C28" s="3">
-        <v>5.0507207146858839</v>
+        <v>138.15832469020549</v>
       </c>
       <c r="D28" s="3">
-        <v>5.2945949991920198</v>
+        <v>12.4102781846568</v>
       </c>
       <c r="E28" s="3">
-        <v>2.8852640652671671</v>
+        <v>3.942012316826947</v>
       </c>
       <c r="F28" s="3">
-        <v>3.712299500273994</v>
+        <v>6.8788962488316354</v>
       </c>
       <c r="G28">
-        <v>30.819353866491269</v>
+        <v>183.08429618316021</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K28" s="3">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1556,22 +1556,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>16.205734092690189</v>
+        <v>14.133331123587819</v>
       </c>
       <c r="C29" s="3">
-        <v>48.387583219841588</v>
+        <v>99.763454609504578</v>
       </c>
       <c r="D29" s="3">
-        <v>6.8563419385998161</v>
+        <v>18.322961543577168</v>
       </c>
       <c r="E29" s="3">
-        <v>2.6725896520123138</v>
+        <v>4.0311761956303318</v>
       </c>
       <c r="F29" s="3">
-        <v>2.7082836470380842</v>
+        <v>4.0691871803741577</v>
       </c>
       <c r="G29">
-        <v>76.830532550182014</v>
+        <v>140.32011065267409</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1594,22 +1594,22 @@
         <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>22.239827866502441</v>
+        <v>33.42736554168718</v>
       </c>
       <c r="C30" s="3">
-        <v>9.5904112734464846</v>
+        <v>12.365853138639849</v>
       </c>
       <c r="D30" s="3">
-        <v>7.366513914103324</v>
+        <v>20.072143264683621</v>
       </c>
       <c r="E30" s="3">
-        <v>3.5809995905753569</v>
+        <v>4.1102246901019708</v>
       </c>
       <c r="F30" s="3">
-        <v>3.606750210696823</v>
+        <v>3.6035805188807131</v>
       </c>
       <c r="G30">
-        <v>46.384502855324442</v>
+        <v>73.579167153993325</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1632,22 +1632,22 @@
         <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>7.5295425096569106</v>
+        <v>8.7335132784454395</v>
       </c>
       <c r="C31" s="3">
-        <v>59.435337659274673</v>
+        <v>65.782685842392368</v>
       </c>
       <c r="D31" s="3">
-        <v>8.6452606399618137</v>
+        <v>9.6996041127672541</v>
       </c>
       <c r="E31" s="3">
-        <v>5.7280328939385807</v>
+        <v>4.155122887745188</v>
       </c>
       <c r="F31" s="3">
-        <v>8.8564880860886355</v>
+        <v>6.460817885156116</v>
       </c>
       <c r="G31">
-        <v>90.194661788920612</v>
+        <v>94.831744006506341</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K31" s="3">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1670,22 +1670,22 @@
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>31.399973396890111</v>
+        <v>38.075537540486437</v>
       </c>
       <c r="C32" s="3">
-        <v>8.3416516488347501</v>
+        <v>10.72378955357231</v>
       </c>
       <c r="D32" s="3">
-        <v>9.5266614854637837</v>
+        <v>4.2432546757084353</v>
       </c>
       <c r="E32" s="3">
-        <v>2.8764171647111518</v>
+        <v>4.1854003118726446</v>
       </c>
       <c r="F32" s="3">
-        <v>3.3291705436620682</v>
+        <v>3.467828384353473</v>
       </c>
       <c r="G32">
-        <v>55.473874239561873</v>
+        <v>60.695810465993318</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>148.61865633933331</v>
+        <v>1453.0444421170921</v>
       </c>
       <c r="C33" s="3">
-        <v>14.017036084068531</v>
+        <v>95.158140472892924</v>
       </c>
       <c r="D33" s="3">
-        <v>10.618816734520029</v>
+        <v>11.15988233171138</v>
       </c>
       <c r="E33" s="3">
-        <v>3.8964276992631039</v>
+        <v>4.2227348250471506</v>
       </c>
       <c r="F33" s="3">
-        <v>2.4944582893298448</v>
+        <v>2.376029044767741</v>
       </c>
       <c r="G33">
-        <v>179.64539514651489</v>
+        <v>1565.9612287915111</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>14</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>56.845891849748398</v>
+        <v>5.8388708334935977</v>
       </c>
       <c r="C34" s="3">
-        <v>95.731892515290269</v>
+        <v>41.071357495610933</v>
       </c>
       <c r="D34" s="3">
-        <v>11.243039760251101</v>
+        <v>4.5579248712000018</v>
       </c>
       <c r="E34" s="3">
-        <v>9.8260076489139756</v>
+        <v>4.2410919988556506</v>
       </c>
       <c r="F34" s="3">
-        <v>7.1145861840919062</v>
+        <v>6.1723077968000979</v>
       </c>
       <c r="G34">
-        <v>180.7614179582956</v>
+        <v>61.881552995960277</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1784,22 +1784,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>13.26900314157399</v>
+        <v>18.480162324044642</v>
       </c>
       <c r="C35" s="3">
-        <v>70.662193282591758</v>
+        <v>59.869133412123183</v>
       </c>
       <c r="D35" s="3">
-        <v>14.981579528717781</v>
+        <v>37.234737701300013</v>
       </c>
       <c r="E35" s="3">
-        <v>14.14369548599938</v>
+        <v>4.2999925343346863</v>
       </c>
       <c r="F35" s="3">
-        <v>27.230745941681459</v>
+        <v>6.1097801999610803</v>
       </c>
       <c r="G35">
-        <v>140.28721738056441</v>
+        <v>125.99380617176359</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -1822,22 +1822,22 @@
         <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>17.371092505791552</v>
+        <v>26.042834260367361</v>
       </c>
       <c r="C36" s="3">
-        <v>230.90743153820119</v>
+        <v>12.922332945250551</v>
       </c>
       <c r="D36" s="3">
-        <v>16.79158038974041</v>
+        <v>5.2217095003244793</v>
       </c>
       <c r="E36" s="3">
-        <v>10.14524638997845</v>
+        <v>4.3225530541025847</v>
       </c>
       <c r="F36" s="3">
-        <v>5.8090605091752234</v>
+        <v>4.2183655696375038</v>
       </c>
       <c r="G36">
-        <v>281.02441133288693</v>
+        <v>52.727795329682479</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -1860,22 +1860,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>29.404297647828528</v>
+        <v>14.290274966792021</v>
       </c>
       <c r="C37" s="3">
-        <v>17.487783679775781</v>
+        <v>90.611627433718979</v>
       </c>
       <c r="D37" s="3">
-        <v>18.189989759599381</v>
+        <v>11.540424587407079</v>
       </c>
       <c r="E37" s="3">
-        <v>10.861723313311961</v>
+        <v>4.323427363956081</v>
       </c>
       <c r="F37" s="3">
-        <v>16.6704244905624</v>
+        <v>4.9985762819338602</v>
       </c>
       <c r="G37">
-        <v>92.614218891078067</v>
+        <v>125.764330633808</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1898,22 +1898,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>14.133331123587819</v>
+        <v>33.627634968346158</v>
       </c>
       <c r="C38" s="3">
-        <v>99.763454609504578</v>
+        <v>7.9420869846148623</v>
       </c>
       <c r="D38" s="3">
-        <v>18.322961543577168</v>
+        <v>5.8643039538541064</v>
       </c>
       <c r="E38" s="3">
-        <v>4.0311761956303318</v>
+        <v>4.5335034637386551</v>
       </c>
       <c r="F38" s="3">
-        <v>4.0691871803741577</v>
+        <v>2.6135397240905069</v>
       </c>
       <c r="G38">
-        <v>140.32011065267409</v>
+        <v>54.581069094644292</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,36 +1922,36 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="3">
-        <v>44.952971364040202</v>
-      </c>
-      <c r="C39" s="3">
-        <v>76.658441660228249</v>
-      </c>
-      <c r="D39" s="3">
-        <v>19.699759843651801</v>
-      </c>
-      <c r="E39" s="3">
-        <v>8.3060830493372695</v>
-      </c>
-      <c r="F39" s="3">
-        <v>13.34413426946937</v>
+      <c r="B39" s="4">
+        <v>7.7099586470416357</v>
+      </c>
+      <c r="C39" s="4">
+        <v>6.4204628277246849</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7.9600443603537254</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4.6064507122240048</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4.9467028125442916</v>
       </c>
       <c r="G39">
-        <v>162.9613901867269</v>
+        <v>31.643619359888351</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>6</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
@@ -1974,22 +1974,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>22.769009207849439</v>
+        <v>24.049369091564969</v>
       </c>
       <c r="C40" s="3">
-        <v>7.9249223015128516</v>
+        <v>11.78101516647121</v>
       </c>
       <c r="D40" s="3">
-        <v>19.751111144750521</v>
+        <v>12.85258965305945</v>
       </c>
       <c r="E40" s="3">
-        <v>7.7223117317562577</v>
+        <v>4.9259039123769401</v>
       </c>
       <c r="F40" s="3">
-        <v>8.7023807738837515</v>
+        <v>3.765068088994596</v>
       </c>
       <c r="G40">
-        <v>66.869735159752807</v>
+        <v>57.373945912467157</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>45.250494344181391</v>
+        <v>7.44362224298097</v>
       </c>
       <c r="C41" s="3">
-        <v>45.034845216752309</v>
+        <v>83.601389809829726</v>
       </c>
       <c r="D41" s="3">
-        <v>19.94981245278484</v>
+        <v>14.78855717128655</v>
       </c>
       <c r="E41" s="3">
-        <v>16.902490565899381</v>
+        <v>4.9958054462029189</v>
       </c>
       <c r="F41" s="3">
-        <v>9.0472641164072591</v>
+        <v>7.5000556765767481</v>
       </c>
       <c r="G41">
-        <v>136.18490669602519</v>
+        <v>118.3294303468769</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2050,22 +2050,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>51.460714750494247</v>
+        <v>25.499504139653581</v>
       </c>
       <c r="C42" s="3">
-        <v>13.82997042713442</v>
+        <v>8.5740752211700499</v>
       </c>
       <c r="D42" s="3">
-        <v>22.494545973493089</v>
+        <v>3.9503226257911841</v>
       </c>
       <c r="E42" s="3">
-        <v>5.8203776870743376</v>
+        <v>5.0060921953189528</v>
       </c>
       <c r="F42" s="3">
-        <v>3.7263279913087382</v>
+        <v>5.2275175026122236</v>
       </c>
       <c r="G42">
-        <v>97.331936829504826</v>
+        <v>48.257511684546003</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2087,23 +2087,23 @@
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="3">
-        <v>36.888119248241338</v>
-      </c>
-      <c r="C43" s="3">
-        <v>10.24367218166161</v>
-      </c>
-      <c r="D43" s="3">
-        <v>26.116042906818009</v>
-      </c>
-      <c r="E43" s="3">
-        <v>5.7638092928094808</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3.5675457212426909</v>
+      <c r="B43" s="4">
+        <v>15.924471532828941</v>
+      </c>
+      <c r="C43" s="4">
+        <v>17.12458997764092</v>
+      </c>
+      <c r="D43" s="4">
+        <v>17.801240672065799</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5.0386466552976801</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1.756869290129186</v>
       </c>
       <c r="G43">
-        <v>82.579189350773134</v>
+        <v>57.645818127962542</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>18</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,22 +2126,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>18.480162324044642</v>
+        <v>10.92828334811577</v>
       </c>
       <c r="C44" s="3">
-        <v>59.869133412123183</v>
+        <v>9.224936602700053</v>
       </c>
       <c r="D44" s="3">
-        <v>37.234737701300013</v>
+        <v>10.090971770442961</v>
       </c>
       <c r="E44" s="3">
-        <v>4.2999925343346863</v>
+        <v>5.0731393874601114</v>
       </c>
       <c r="F44" s="3">
-        <v>6.1097801999610803</v>
+        <v>4.3111322397239134</v>
       </c>
       <c r="G44">
-        <v>125.99380617176359</v>
+        <v>39.628463348442821</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,13 +2150,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2164,22 +2164,22 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>27.097516775815119</v>
+        <v>6.928251390750404</v>
       </c>
       <c r="C45" s="3">
-        <v>13.66080936659076</v>
+        <v>57.219566043080228</v>
       </c>
       <c r="D45" s="3">
-        <v>38.932733602884113</v>
+        <v>25.66176652427114</v>
       </c>
       <c r="E45" s="3">
-        <v>5.9986886698428146</v>
+        <v>5.1879303235992076</v>
       </c>
       <c r="F45" s="3">
-        <v>4.0229934872269677</v>
+        <v>7.0610118605309653</v>
       </c>
       <c r="G45">
-        <v>89.712741902359767</v>
+        <v>102.0585261422319</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,36 +2188,36 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="3">
-        <v>45.036257955100737</v>
-      </c>
-      <c r="C46" s="3">
-        <v>31.549040285948191</v>
-      </c>
-      <c r="D46" s="3">
-        <v>94.079267134660853</v>
-      </c>
-      <c r="E46" s="3">
-        <v>35.520397097142798</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45.536259173108277</v>
+      <c r="B46" s="4">
+        <v>19.767729811915679</v>
+      </c>
+      <c r="C46" s="4">
+        <v>47.942946742507061</v>
+      </c>
+      <c r="D46" s="4">
+        <v>12.38652775205148</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5.2132354146122726</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4.5630817524040808</v>
       </c>
       <c r="G46">
-        <v>251.7212216459609</v>
+        <v>89.873521473490541</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2239,23 +2239,23 @@
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="3">
-        <v>1453.0444421170921</v>
-      </c>
-      <c r="C47" s="3">
-        <v>95.158140472892924</v>
-      </c>
-      <c r="D47" s="3">
-        <v>11.15988233171138</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4.2227348250471506</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2.376029044767741</v>
+      <c r="B47" s="4">
+        <v>460.99111348731691</v>
+      </c>
+      <c r="C47" s="4">
+        <v>43.181082955944888</v>
+      </c>
+      <c r="D47" s="4">
+        <v>10.898637367756461</v>
+      </c>
+      <c r="E47" s="4">
+        <v>5.3649073014615931</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2.9095065326275131</v>
       </c>
       <c r="G47">
-        <v>1565.9612287915111</v>
+        <v>523.34524764510718</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
+        <v>18</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>13</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>38.075537540486437</v>
-      </c>
-      <c r="C48" s="3">
-        <v>10.72378955357231</v>
-      </c>
-      <c r="D48" s="3">
-        <v>4.2432546757084353</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4.1854003118726446</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3.467828384353473</v>
+      <c r="B48" s="4">
+        <v>41.499080029085583</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19.031911675266691</v>
+      </c>
+      <c r="D48" s="4">
+        <v>8.3003367097611189</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5.4067036021737467</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4.6737902095171142</v>
       </c>
       <c r="G48">
-        <v>60.695810465993318</v>
+        <v>78.911822225804229</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,36 +2302,36 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="3">
-        <v>14.290274966792021</v>
-      </c>
-      <c r="C49" s="3">
-        <v>90.611627433718979</v>
-      </c>
-      <c r="D49" s="3">
-        <v>11.540424587407079</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4.323427363956081</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4.9985762819338602</v>
+      <c r="B49" s="4">
+        <v>25.08344316411554</v>
+      </c>
+      <c r="C49" s="4">
+        <v>73.785551973410819</v>
+      </c>
+      <c r="D49" s="4">
+        <v>25.15963808215383</v>
+      </c>
+      <c r="E49" s="4">
+        <v>5.4118708057279941</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4.2506063448989142</v>
       </c>
       <c r="G49">
-        <v>125.764330633808</v>
+        <v>133.69111037030709</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>14</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2354,22 +2354,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>19.916356522370769</v>
+        <v>10.79379924369705</v>
       </c>
       <c r="C50" s="3">
-        <v>102.31203093227199</v>
+        <v>133.93078015213479</v>
       </c>
       <c r="D50" s="3">
-        <v>6.5690601672382556</v>
+        <v>31.381596388588491</v>
       </c>
       <c r="E50" s="3">
-        <v>3.388195631516727</v>
+        <v>5.4504883847230703</v>
       </c>
       <c r="F50" s="3">
-        <v>5.6339590758399236</v>
+        <v>6.9066565755468652</v>
       </c>
       <c r="G50">
-        <v>137.81960232923771</v>
+        <v>188.46332074469029</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="3">
-        <v>402.08162920863168</v>
-      </c>
-      <c r="C51" s="3">
-        <v>21.9293056677149</v>
-      </c>
-      <c r="D51" s="3">
-        <v>6.9508786780387988</v>
-      </c>
-      <c r="E51" s="3">
-        <v>6.6841266860976249</v>
-      </c>
-      <c r="F51" s="3">
-        <v>6.3310872212594731</v>
+      <c r="B51" s="4">
+        <v>36.172267424839603</v>
+      </c>
+      <c r="C51" s="4">
+        <v>7.9226762780483142</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.6281726988855278</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5.4698707322238684</v>
+      </c>
+      <c r="F51" s="4">
+        <v>6.3124658145869086</v>
       </c>
       <c r="G51">
-        <v>443.97702746174258</v>
+        <v>58.505452948584221</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>15</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2430,22 +2430,22 @@
         <v>11</v>
       </c>
       <c r="B52" s="3">
-        <v>21.694784742639271</v>
+        <v>18.212178846963582</v>
       </c>
       <c r="C52" s="3">
-        <v>138.15832469020549</v>
+        <v>80.329395918845165</v>
       </c>
       <c r="D52" s="3">
-        <v>12.4102781846568</v>
+        <v>8.4581541660683079</v>
       </c>
       <c r="E52" s="3">
-        <v>3.942012316826947</v>
+        <v>5.5317997608534428</v>
       </c>
       <c r="F52" s="3">
-        <v>6.8788962488316354</v>
+        <v>6.9499217661672974</v>
       </c>
       <c r="G52">
-        <v>183.08429618316021</v>
+        <v>119.4814504588978</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2467,23 +2467,23 @@
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="3">
-        <v>21.694784742639271</v>
-      </c>
-      <c r="C53" s="3">
-        <v>138.15832469020549</v>
-      </c>
-      <c r="D53" s="3">
-        <v>12.4102781846568</v>
-      </c>
-      <c r="E53" s="3">
-        <v>3.942012316826947</v>
-      </c>
-      <c r="F53" s="3">
-        <v>6.8788962488316354</v>
+      <c r="B53" s="4">
+        <v>19.7164256554837</v>
+      </c>
+      <c r="C53" s="4">
+        <v>16.207928326756338</v>
+      </c>
+      <c r="D53" s="4">
+        <v>13.01686105867968</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5.6785142157501411</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.5685291480400081</v>
       </c>
       <c r="G53">
-        <v>183.08429618316021</v>
+        <v>57.18825840470987</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K53" s="4">
+        <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2506,22 +2506,22 @@
         <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>21.694784742639271</v>
+        <v>7.5295425096569106</v>
       </c>
       <c r="C54" s="3">
-        <v>138.15832469020549</v>
+        <v>59.435337659274673</v>
       </c>
       <c r="D54" s="3">
-        <v>12.4102781846568</v>
+        <v>8.6452606399618137</v>
       </c>
       <c r="E54" s="3">
-        <v>3.942012316826947</v>
+        <v>5.7280328939385807</v>
       </c>
       <c r="F54" s="3">
-        <v>6.8788962488316354</v>
+        <v>8.8564880860886355</v>
       </c>
       <c r="G54">
-        <v>183.08429618316021</v>
+        <v>90.194661788920612</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2544,22 +2544,22 @@
         <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>21.694784742639271</v>
+        <v>36.888119248241338</v>
       </c>
       <c r="C55" s="3">
-        <v>138.15832469020549</v>
+        <v>10.24367218166161</v>
       </c>
       <c r="D55" s="3">
-        <v>12.4102781846568</v>
+        <v>26.116042906818009</v>
       </c>
       <c r="E55" s="3">
-        <v>3.942012316826947</v>
+        <v>5.7638092928094808</v>
       </c>
       <c r="F55" s="3">
-        <v>6.8788962488316354</v>
+        <v>3.5675457212426909</v>
       </c>
       <c r="G55">
-        <v>183.08429618316021</v>
+        <v>82.579189350773134</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,22 +2582,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="3">
-        <v>21.694784742639271</v>
+        <v>51.460714750494247</v>
       </c>
       <c r="C56" s="3">
-        <v>138.15832469020549</v>
+        <v>13.82997042713442</v>
       </c>
       <c r="D56" s="3">
-        <v>12.4102781846568</v>
+        <v>22.494545973493089</v>
       </c>
       <c r="E56" s="3">
-        <v>3.942012316826947</v>
+        <v>5.8203776870743376</v>
       </c>
       <c r="F56" s="3">
-        <v>6.8788962488316354</v>
+        <v>3.7263279913087382</v>
       </c>
       <c r="G56">
-        <v>183.08429618316021</v>
+        <v>97.331936829504826</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>21.694784742639271</v>
+        <v>13.850677158247549</v>
       </c>
       <c r="C57" s="3">
-        <v>138.15832469020549</v>
+        <v>73.054939001290592</v>
       </c>
       <c r="D57" s="3">
-        <v>12.4102781846568</v>
+        <v>19.312480346551219</v>
       </c>
       <c r="E57" s="3">
-        <v>3.942012316826947</v>
+        <v>5.9118983955176274</v>
       </c>
       <c r="F57" s="3">
-        <v>6.8788962488316354</v>
+        <v>8.4972654550781339</v>
       </c>
       <c r="G57">
-        <v>183.08429618316021</v>
+        <v>120.6272603566851</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2658,22 +2658,22 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>21.694784742639271</v>
+        <v>27.097516775815119</v>
       </c>
       <c r="C58" s="3">
-        <v>138.15832469020549</v>
+        <v>13.66080936659076</v>
       </c>
       <c r="D58" s="3">
-        <v>12.4102781846568</v>
+        <v>38.932733602884113</v>
       </c>
       <c r="E58" s="3">
-        <v>3.942012316826947</v>
+        <v>5.9986886698428146</v>
       </c>
       <c r="F58" s="3">
-        <v>6.8788962488316354</v>
+        <v>4.0229934872269677</v>
       </c>
       <c r="G58">
-        <v>183.08429618316021</v>
+        <v>89.712741902359767</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,36 +2682,36 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3">
-        <v>21.694784742639271</v>
-      </c>
-      <c r="C59" s="3">
-        <v>138.15832469020549</v>
-      </c>
-      <c r="D59" s="3">
-        <v>12.4102781846568</v>
-      </c>
-      <c r="E59" s="3">
-        <v>3.942012316826947</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6.8788962488316354</v>
+      <c r="B59" s="4">
+        <v>39.440214271704392</v>
+      </c>
+      <c r="C59" s="4">
+        <v>17.78594301265851</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.112236160333115</v>
+      </c>
+      <c r="E59" s="4">
+        <v>6.0381658031203909</v>
+      </c>
+      <c r="F59" s="4">
+        <v>6.6404946926294741</v>
       </c>
       <c r="G59">
-        <v>183.08429618316021</v>
+        <v>75.017053940445891</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>17</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2734,22 +2734,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>21.694784742639271</v>
+        <v>6.4696242629063727</v>
       </c>
       <c r="C60" s="3">
-        <v>138.15832469020549</v>
+        <v>73.746132356369316</v>
       </c>
       <c r="D60" s="3">
-        <v>12.4102781846568</v>
+        <v>25.730070653975531</v>
       </c>
       <c r="E60" s="3">
-        <v>3.942012316826947</v>
+        <v>6.073213224070714</v>
       </c>
       <c r="F60" s="3">
-        <v>6.8788962488316354</v>
+        <v>8.2578574849678645</v>
       </c>
       <c r="G60">
-        <v>183.08429618316021</v>
+        <v>120.2768979822898</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,36 +2758,36 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3">
-        <v>18.212178846963582</v>
-      </c>
-      <c r="C61" s="3">
-        <v>80.329395918845165</v>
-      </c>
-      <c r="D61" s="3">
-        <v>8.4581541660683079</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5.5317997608534428</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6.9499217661672974</v>
+      <c r="B61" s="4">
+        <v>39.869803178246279</v>
+      </c>
+      <c r="C61" s="4">
+        <v>12.37005367024808</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3.6551062227036439</v>
+      </c>
+      <c r="E61" s="4">
+        <v>6.1740563438777656</v>
+      </c>
+      <c r="F61" s="4">
+        <v>6.5019214647755668</v>
       </c>
       <c r="G61">
-        <v>119.4814504588978</v>
+        <v>68.570940879851321</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>7</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K61" s="4">
+        <v>1</v>
       </c>
       <c r="L61" t="s">
         <v>14</v>
@@ -2810,22 +2810,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>35.642580977696298</v>
+        <v>110.9290636056121</v>
       </c>
       <c r="C62" s="3">
-        <v>141.54388651769901</v>
+        <v>32.595250851775262</v>
       </c>
       <c r="D62" s="3">
-        <v>10.86000419485657</v>
+        <v>19.712916818244722</v>
       </c>
       <c r="E62" s="3">
-        <v>9.5395200016169035</v>
+        <v>6.2290577337114934</v>
       </c>
       <c r="F62" s="3">
-        <v>7.8302431890106394</v>
+        <v>2.9743577526930758</v>
       </c>
       <c r="G62">
-        <v>205.41623488087939</v>
+        <v>172.44064676203661</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,36 +2834,36 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3">
-        <v>13.850677158247549</v>
-      </c>
-      <c r="C63" s="3">
-        <v>73.054939001290592</v>
-      </c>
-      <c r="D63" s="3">
-        <v>19.312480346551219</v>
-      </c>
-      <c r="E63" s="3">
-        <v>5.9118983955176274</v>
-      </c>
-      <c r="F63" s="3">
-        <v>8.4972654550781339</v>
+      <c r="B63" s="4">
+        <v>15.9694775964185</v>
+      </c>
+      <c r="C63" s="4">
+        <v>6.0674020780765234</v>
+      </c>
+      <c r="D63" s="4">
+        <v>13.23236307728174</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6.4545473075759192</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.2360313405302508</v>
       </c>
       <c r="G63">
-        <v>120.6272603566851</v>
+        <v>45.959821399882927</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>6</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2886,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>29.413923973830521</v>
+        <v>402.08162920863168</v>
       </c>
       <c r="C64" s="3">
-        <v>253.90485668372651</v>
+        <v>21.9293056677149</v>
       </c>
       <c r="D64" s="3">
-        <v>19.1768718063697</v>
+        <v>6.9508786780387988</v>
       </c>
       <c r="E64" s="3">
-        <v>12.78673503531995</v>
+        <v>6.6841266860976249</v>
       </c>
       <c r="F64" s="3">
-        <v>8.5922288070317414</v>
+        <v>6.3310872212594731</v>
       </c>
       <c r="G64">
-        <v>323.87461630627831</v>
+        <v>443.97702746174258</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>36.895093361230927</v>
+        <v>57.186515190639099</v>
       </c>
       <c r="C65" s="3">
-        <v>32.363328075958279</v>
+        <v>12.87237589599297</v>
       </c>
       <c r="D65" s="3">
-        <v>24.693018747731148</v>
+        <v>34.042132897218437</v>
       </c>
       <c r="E65" s="3">
-        <v>10.61382750466294</v>
+        <v>6.8329039537475538</v>
       </c>
       <c r="F65" s="3">
-        <v>15.591701187855881</v>
+        <v>3.8750198146132728</v>
       </c>
       <c r="G65">
-        <v>120.1569688774392</v>
+        <v>114.8089477522114</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2962,22 +2962,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>13.31401686102407</v>
+        <v>28.649321282317182</v>
       </c>
       <c r="C66" s="3">
-        <v>93.012654724553911</v>
+        <v>16.443520879614962</v>
       </c>
       <c r="D66" s="3">
-        <v>16.92120473728416</v>
+        <v>58.804086639918637</v>
       </c>
       <c r="E66" s="3">
-        <v>10.32111323137366</v>
+        <v>6.9186030215297558</v>
       </c>
       <c r="F66" s="3">
-        <v>16.67203694034411</v>
+        <v>4.0505844667415278</v>
       </c>
       <c r="G66">
-        <v>150.24102649458001</v>
+        <v>114.86611629012209</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,36 +2986,36 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="3">
-        <v>1643.8536543895041</v>
-      </c>
-      <c r="C67" s="3">
-        <v>473.72333848662743</v>
-      </c>
-      <c r="D67" s="3">
-        <v>70.308151179660712</v>
-      </c>
-      <c r="E67" s="3">
-        <v>38.836253593327839</v>
-      </c>
-      <c r="F67" s="3">
-        <v>25.54940307341894</v>
+      <c r="B67" s="4">
+        <v>20.892300874176421</v>
+      </c>
+      <c r="C67" s="4">
+        <v>48.640659423877302</v>
+      </c>
+      <c r="D67" s="4">
+        <v>13.10997228675865</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6.951037488073319</v>
+      </c>
+      <c r="F67" s="4">
+        <v>7.0566189324099016</v>
       </c>
       <c r="G67">
-        <v>2252.2708007225378</v>
+        <v>96.650589005295629</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>24</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
       </c>
       <c r="L67" t="s">
         <v>14</v>
@@ -3038,22 +3038,22 @@
         <v>11</v>
       </c>
       <c r="B68" s="3">
-        <v>42.495149791121527</v>
+        <v>11.9426704624422</v>
       </c>
       <c r="C68" s="3">
-        <v>57.871040029976903</v>
+        <v>104.8845396795604</v>
       </c>
       <c r="D68" s="3">
-        <v>24.39680681980802</v>
+        <v>72.58049326521234</v>
       </c>
       <c r="E68" s="3">
-        <v>29.708598118930531</v>
+        <v>7.0632837606276686</v>
       </c>
       <c r="F68" s="3">
-        <v>72.465202764840441</v>
+        <v>8.718805124883275</v>
       </c>
       <c r="G68">
-        <v>226.9367975246775</v>
+        <v>205.18979229272591</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,36 +3062,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>15.924471532828941</v>
-      </c>
-      <c r="C69" s="4">
-        <v>17.12458997764092</v>
-      </c>
-      <c r="D69" s="4">
-        <v>17.801240672065799</v>
-      </c>
-      <c r="E69" s="4">
-        <v>5.0386466552976801</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.756869290129186</v>
+      <c r="B69" s="3">
+        <v>27.54365757693812</v>
+      </c>
+      <c r="C69" s="3">
+        <v>31.371032838350452</v>
+      </c>
+      <c r="D69" s="3">
+        <v>37.409905598042883</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7.1003345397552033</v>
+      </c>
+      <c r="F69" s="3">
+        <v>5.2867586449473407</v>
       </c>
       <c r="G69">
-        <v>57.645818127962542</v>
+        <v>108.71168919803399</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>26</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>12</v>
@@ -3114,22 +3114,22 @@
         <v>11</v>
       </c>
       <c r="B70" s="4">
-        <v>12.29393690778666</v>
+        <v>17.087622808819258</v>
       </c>
       <c r="C70" s="4">
-        <v>16.564987350913121</v>
+        <v>7.1655672819538161</v>
       </c>
       <c r="D70" s="4">
-        <v>16.776882957380241</v>
+        <v>5.54496629130323</v>
       </c>
       <c r="E70" s="4">
-        <v>3.7827564818164872</v>
+        <v>7.1537384840822371</v>
       </c>
       <c r="F70" s="4">
-        <v>2.075903565790572</v>
+        <v>6.685728134209783</v>
       </c>
       <c r="G70">
-        <v>51.494467263687078</v>
+        <v>43.637623000368343</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K70" s="4">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3152,22 +3152,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="4">
-        <v>15.9694775964185</v>
+        <v>41.207160591476253</v>
       </c>
       <c r="C71" s="4">
-        <v>6.0674020780765234</v>
+        <v>7.8773079619755748</v>
       </c>
       <c r="D71" s="4">
-        <v>13.23236307728174</v>
+        <v>4.8662218199527398</v>
       </c>
       <c r="E71" s="4">
-        <v>6.4545473075759192</v>
+        <v>7.1599542207182063</v>
       </c>
       <c r="F71" s="4">
-        <v>4.2360313405302508</v>
+        <v>13.54606079203308</v>
       </c>
       <c r="G71">
-        <v>45.959821399882927</v>
+        <v>74.656705386155835</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K71" s="4">
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3190,22 +3190,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>25.08344316411554</v>
+        <v>11.75887824144616</v>
       </c>
       <c r="C72" s="4">
-        <v>73.785551973410819</v>
+        <v>10.073515268805521</v>
       </c>
       <c r="D72" s="4">
-        <v>25.15963808215383</v>
+        <v>31.478785272474841</v>
       </c>
       <c r="E72" s="4">
-        <v>5.4118708057279941</v>
+        <v>7.2000163718484602</v>
       </c>
       <c r="F72" s="4">
-        <v>4.2506063448989142</v>
+        <v>5.676487439637147</v>
       </c>
       <c r="G72">
-        <v>133.69111037030709</v>
+        <v>66.187682594212106</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
@@ -3228,22 +3228,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="4">
-        <v>12.270047891984779</v>
+        <v>10.64224144472483</v>
       </c>
       <c r="C73" s="4">
-        <v>7.4763232283805374</v>
+        <v>5.4169061222582986</v>
       </c>
       <c r="D73" s="4">
-        <v>35.598027827395534</v>
+        <v>8.1667453177503297</v>
       </c>
       <c r="E73" s="4">
-        <v>12.68913720400178</v>
+        <v>7.2524379995978672</v>
       </c>
       <c r="F73" s="4">
-        <v>5.392975271007395</v>
+        <v>3.3996896408971571</v>
       </c>
       <c r="G73">
-        <v>73.426511422770034</v>
+        <v>34.878020525228479</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,13 +3252,13 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K73" s="4">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3266,22 +3266,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>11.75887824144616</v>
+        <v>52.656885183178723</v>
       </c>
       <c r="C74" s="4">
-        <v>10.073515268805521</v>
+        <v>20.121072319059781</v>
       </c>
       <c r="D74" s="4">
-        <v>31.478785272474841</v>
+        <v>7.0787765138357273</v>
       </c>
       <c r="E74" s="4">
-        <v>7.2000163718484602</v>
+        <v>7.4107339136454513</v>
       </c>
       <c r="F74" s="4">
-        <v>5.676487439637147</v>
+        <v>5.9688005019609696</v>
       </c>
       <c r="G74">
-        <v>66.187682594212106</v>
+        <v>93.236268431680628</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,36 +3290,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="4">
-        <v>376.21465285467309</v>
-      </c>
-      <c r="C75" s="4">
-        <v>95.875361807597329</v>
-      </c>
-      <c r="D75" s="4">
-        <v>30.61688628652443</v>
-      </c>
-      <c r="E75" s="4">
-        <v>14.90636793708163</v>
-      </c>
-      <c r="F75" s="4">
-        <v>6.0217818497658104</v>
+      <c r="B75" s="3">
+        <v>22.769009207849439</v>
+      </c>
+      <c r="C75" s="3">
+        <v>7.9249223015128516</v>
+      </c>
+      <c r="D75" s="3">
+        <v>19.751111144750521</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7.7223117317562577</v>
+      </c>
+      <c r="F75" s="3">
+        <v>8.7023807738837515</v>
       </c>
       <c r="G75">
-        <v>523.63505073564238</v>
+        <v>66.869735159752807</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>27</v>
-      </c>
-      <c r="K75" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,22 +3342,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>11.80485657662774</v>
+        <v>7.4776497661660466</v>
       </c>
       <c r="C76" s="4">
-        <v>5.1699197919786064</v>
+        <v>9.62974378754806</v>
       </c>
       <c r="D76" s="4">
-        <v>2.6887440439723989</v>
+        <v>14.119305571909569</v>
       </c>
       <c r="E76" s="4">
-        <v>8.7398211226458447</v>
+        <v>8.062036759993946</v>
       </c>
       <c r="F76" s="4">
-        <v>6.2589369122331791</v>
+        <v>10.222931800955299</v>
       </c>
       <c r="G76">
-        <v>34.662278447457773</v>
+        <v>49.511667686572913</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
@@ -3379,23 +3379,23 @@
       <c r="A77" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="4">
-        <v>7.4959343486003558</v>
-      </c>
-      <c r="C77" s="4">
-        <v>4.6694009280326254</v>
-      </c>
-      <c r="D77" s="4">
-        <v>15.289738284844921</v>
-      </c>
-      <c r="E77" s="4">
-        <v>14.128023045586909</v>
-      </c>
-      <c r="F77" s="4">
-        <v>6.3222534757310367</v>
+      <c r="B77" s="3">
+        <v>44.952971364040202</v>
+      </c>
+      <c r="C77" s="3">
+        <v>76.658441660228249</v>
+      </c>
+      <c r="D77" s="3">
+        <v>19.699759843651801</v>
+      </c>
+      <c r="E77" s="3">
+        <v>8.3060830493372695</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13.34413426946937</v>
       </c>
       <c r="G77">
-        <v>47.905350082795827</v>
+        <v>162.9613901867269</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>19</v>
-      </c>
-      <c r="K77" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3418,22 +3418,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>21.887980744032241</v>
+        <v>35.864103015634612</v>
       </c>
       <c r="C78" s="4">
-        <v>26.573113346595399</v>
+        <v>14.17455923786232</v>
       </c>
       <c r="D78" s="4">
-        <v>179.93782944725851</v>
+        <v>13.811572595150819</v>
       </c>
       <c r="E78" s="4">
-        <v>18.241889290132761</v>
+        <v>8.3182856476347329</v>
       </c>
       <c r="F78" s="4">
-        <v>6.7883406962363972</v>
+        <v>8.0700055627512484</v>
       </c>
       <c r="G78">
-        <v>253.4291535242553</v>
+        <v>80.238526059033717</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,36 +3442,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4">
-        <v>161.3547601180349</v>
-      </c>
-      <c r="C79" s="4">
-        <v>40.011887795425032</v>
-      </c>
-      <c r="D79" s="4">
-        <v>15.87098787093376</v>
-      </c>
-      <c r="E79" s="4">
-        <v>11.476863970257639</v>
-      </c>
-      <c r="F79" s="4">
-        <v>7.3442799625724202</v>
+      <c r="B79" s="3">
+        <v>23.763490068338061</v>
+      </c>
+      <c r="C79" s="3">
+        <v>15.879622991038371</v>
+      </c>
+      <c r="D79" s="3">
+        <v>76.896955709476529</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8.4000444258687406</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3.946532748888258</v>
       </c>
       <c r="G79">
-        <v>236.0587797172237</v>
+        <v>128.88664594361001</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>21</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
         <v>12</v>
@@ -3494,22 +3494,22 @@
         <v>11</v>
       </c>
       <c r="B80" s="4">
-        <v>12.61543240542427</v>
+        <v>10.155049382214401</v>
       </c>
       <c r="C80" s="4">
-        <v>8.9993499199740743</v>
+        <v>6.5366615570730033</v>
       </c>
       <c r="D80" s="4">
-        <v>16.06886231279999</v>
+        <v>10.64955951291876</v>
       </c>
       <c r="E80" s="4">
-        <v>15.642333195293411</v>
+        <v>8.5922133815542665</v>
       </c>
       <c r="F80" s="4">
-        <v>8.1510277724530624</v>
+        <v>9.1403680926103945</v>
       </c>
       <c r="G80">
-        <v>61.477005605944782</v>
+        <v>45.073851926370828</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K80" s="4">
         <v>1</v>
@@ -3532,22 +3532,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>9.6674999034570348</v>
+        <v>11.80485657662774</v>
       </c>
       <c r="C81" s="4">
-        <v>20.151765500999819</v>
+        <v>5.1699197919786064</v>
       </c>
       <c r="D81" s="4">
-        <v>47.241072342928682</v>
+        <v>2.6887440439723989</v>
       </c>
       <c r="E81" s="4">
-        <v>27.68256078645376</v>
+        <v>8.7398211226458447</v>
       </c>
       <c r="F81" s="4">
-        <v>9.0347107089741598</v>
+        <v>6.2589369122331791</v>
       </c>
       <c r="G81">
-        <v>113.7776092428134</v>
+        <v>34.662278447457773</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
@@ -3569,23 +3569,23 @@
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="4">
-        <v>10.155049382214401</v>
-      </c>
-      <c r="C82" s="4">
-        <v>6.5366615570730033</v>
-      </c>
-      <c r="D82" s="4">
-        <v>10.64955951291876</v>
-      </c>
-      <c r="E82" s="4">
-        <v>8.5922133815542665</v>
-      </c>
-      <c r="F82" s="4">
-        <v>9.1403680926103945</v>
+      <c r="B82" s="3">
+        <v>67.717554197469127</v>
+      </c>
+      <c r="C82" s="3">
+        <v>96.632527017132475</v>
+      </c>
+      <c r="D82" s="3">
+        <v>12.6368185764789</v>
+      </c>
+      <c r="E82" s="3">
+        <v>8.8266803022236591</v>
+      </c>
+      <c r="F82" s="3">
+        <v>6.5204369940561699</v>
       </c>
       <c r="G82">
-        <v>45.073851926370828</v>
+        <v>192.33401708736031</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
@@ -3608,22 +3608,22 @@
         <v>11</v>
       </c>
       <c r="B83" s="4">
-        <v>31.336856404208</v>
+        <v>46.960903533867423</v>
       </c>
       <c r="C83" s="4">
-        <v>23.66945717267906</v>
+        <v>12.79689884962858</v>
       </c>
       <c r="D83" s="4">
-        <v>18.182310306595181</v>
+        <v>4.1468211319256918</v>
       </c>
       <c r="E83" s="4">
-        <v>13.749738115999589</v>
+        <v>9.1040397636231365</v>
       </c>
       <c r="F83" s="4">
-        <v>9.5709164149266002</v>
+        <v>8.4171347331774431</v>
       </c>
       <c r="G83">
-        <v>96.509278414408428</v>
+        <v>81.425798012222273</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K83" s="4">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3646,22 +3646,22 @@
         <v>11</v>
       </c>
       <c r="B84" s="4">
-        <v>16.93217775678373</v>
+        <v>26.965434761979321</v>
       </c>
       <c r="C84" s="4">
-        <v>7.5361740305828819</v>
+        <v>12.318429301787621</v>
       </c>
       <c r="D84" s="4">
-        <v>9.8779857075687119</v>
+        <v>7.682071410394899</v>
       </c>
       <c r="E84" s="4">
-        <v>16.89431648944133</v>
+        <v>9.2868402516944997</v>
       </c>
       <c r="F84" s="4">
-        <v>9.9452845421040319</v>
+        <v>8.3482206400843175</v>
       </c>
       <c r="G84">
-        <v>61.185938526480683</v>
+        <v>64.600996365940645</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3670,36 +3670,36 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K84" s="4">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="4">
-        <v>7.4776497661660466</v>
-      </c>
-      <c r="C85" s="4">
-        <v>9.62974378754806</v>
-      </c>
-      <c r="D85" s="4">
-        <v>14.119305571909569</v>
-      </c>
-      <c r="E85" s="4">
-        <v>8.062036759993946</v>
-      </c>
-      <c r="F85" s="4">
-        <v>10.222931800955299</v>
+      <c r="B85" s="3">
+        <v>35.642580977696298</v>
+      </c>
+      <c r="C85" s="3">
+        <v>141.54388651769901</v>
+      </c>
+      <c r="D85" s="3">
+        <v>10.86000419485657</v>
+      </c>
+      <c r="E85" s="3">
+        <v>9.5395200016169035</v>
+      </c>
+      <c r="F85" s="3">
+        <v>7.8302431890106394</v>
       </c>
       <c r="G85">
-        <v>49.511667686572913</v>
+        <v>205.41623488087939</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>9</v>
-      </c>
-      <c r="K85" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3722,22 +3722,22 @@
         <v>11</v>
       </c>
       <c r="B86" s="4">
-        <v>200.6681226300006</v>
+        <v>294.04778860031388</v>
       </c>
       <c r="C86" s="4">
-        <v>17.93465538915234</v>
+        <v>105.56336846137479</v>
       </c>
       <c r="D86" s="4">
-        <v>51.119358140470403</v>
+        <v>18.541984097933721</v>
       </c>
       <c r="E86" s="4">
-        <v>23.610313787648739</v>
+        <v>9.5889466222101021</v>
       </c>
       <c r="F86" s="4">
-        <v>10.59495978268551</v>
+        <v>11.427653494530601</v>
       </c>
       <c r="G86">
-        <v>303.92740972995762</v>
+        <v>439.16974127636308</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,36 +3746,36 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K86" s="4">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
-      <c r="B87" s="4">
-        <v>37.281995443362817</v>
-      </c>
-      <c r="C87" s="4">
-        <v>6.4684559761275056</v>
-      </c>
-      <c r="D87" s="4">
-        <v>7.8953998591528221</v>
-      </c>
-      <c r="E87" s="4">
-        <v>9.9122015172288123</v>
-      </c>
-      <c r="F87" s="4">
-        <v>10.796991682395671</v>
+      <c r="B87" s="3">
+        <v>56.845891849748398</v>
+      </c>
+      <c r="C87" s="3">
+        <v>95.731892515290269</v>
+      </c>
+      <c r="D87" s="3">
+        <v>11.243039760251101</v>
+      </c>
+      <c r="E87" s="3">
+        <v>9.8260076489139756</v>
+      </c>
+      <c r="F87" s="3">
+        <v>7.1145861840919062</v>
       </c>
       <c r="G87">
-        <v>72.355044478267644</v>
+        <v>180.7614179582956</v>
       </c>
       <c r="H87">
         <v>0.25</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>24</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K87" s="3">
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3798,22 +3798,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="4">
-        <v>24.707034879516691</v>
+        <v>21.924422710391759</v>
       </c>
       <c r="C88" s="4">
-        <v>32.649770790522837</v>
+        <v>8.9068996935703417</v>
       </c>
       <c r="D88" s="4">
-        <v>114.4158038207118</v>
+        <v>6.6568410088495868</v>
       </c>
       <c r="E88" s="4">
-        <v>19.875368151936449</v>
+        <v>9.899774588883945</v>
       </c>
       <c r="F88" s="4">
-        <v>11.152934324046591</v>
+        <v>9.2236823542864208</v>
       </c>
       <c r="G88">
-        <v>202.80091196673439</v>
+        <v>56.611620355982048</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="J88">
+        <v>21</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
         <v>13</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3836,22 +3836,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>13.297090945818971</v>
+        <v>37.281995443362817</v>
       </c>
       <c r="C89" s="4">
-        <v>7.1021158193197964</v>
+        <v>6.4684559761275056</v>
       </c>
       <c r="D89" s="4">
-        <v>21.309999834012011</v>
+        <v>7.8953998591528221</v>
       </c>
       <c r="E89" s="4">
-        <v>11.24832032901333</v>
+        <v>9.9122015172288123</v>
       </c>
       <c r="F89" s="4">
-        <v>11.32154383245445</v>
+        <v>10.796991682395671</v>
       </c>
       <c r="G89">
-        <v>64.279070760618552</v>
+        <v>72.355044478267644</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
@@ -3874,22 +3874,22 @@
         <v>11</v>
       </c>
       <c r="B90" s="4">
-        <v>14.35933069857199</v>
+        <v>22.296976631366611</v>
       </c>
       <c r="C90" s="4">
-        <v>22.522531050587631</v>
+        <v>8.3958857157461075</v>
       </c>
       <c r="D90" s="4">
-        <v>10.165739393710849</v>
+        <v>7.6003789720369346</v>
       </c>
       <c r="E90" s="4">
-        <v>12.15352538779193</v>
+        <v>9.933251503196848</v>
       </c>
       <c r="F90" s="4">
-        <v>11.39517735316524</v>
+        <v>6.7094395663659139</v>
       </c>
       <c r="G90">
-        <v>70.59630388382763</v>
+        <v>54.935932388712423</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,36 +3898,36 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K90" s="4">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="4">
-        <v>1623.8846320658799</v>
-      </c>
-      <c r="C91" s="4">
-        <v>282.3373581697291</v>
-      </c>
-      <c r="D91" s="4">
-        <v>42.329759354563834</v>
-      </c>
-      <c r="E91" s="4">
-        <v>22.928973872586639</v>
-      </c>
-      <c r="F91" s="4">
-        <v>12.330813508556201</v>
+      <c r="B91" s="3">
+        <v>17.371092505791552</v>
+      </c>
+      <c r="C91" s="3">
+        <v>230.90743153820119</v>
+      </c>
+      <c r="D91" s="3">
+        <v>16.79158038974041</v>
+      </c>
+      <c r="E91" s="3">
+        <v>10.14524638997845</v>
+      </c>
+      <c r="F91" s="3">
+        <v>5.8090605091752234</v>
       </c>
       <c r="G91">
-        <v>1983.811536971315</v>
+        <v>281.02441133288693</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,36 +3936,36 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>18</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="4">
-        <v>410.32566955803651</v>
-      </c>
-      <c r="C92" s="4">
-        <v>89.705685687897088</v>
-      </c>
-      <c r="D92" s="4">
-        <v>58.446140516501671</v>
-      </c>
-      <c r="E92" s="4">
-        <v>21.602718447664689</v>
-      </c>
-      <c r="F92" s="4">
-        <v>16.850050469522891</v>
+      <c r="B92" s="3">
+        <v>13.31401686102407</v>
+      </c>
+      <c r="C92" s="3">
+        <v>93.012654724553911</v>
+      </c>
+      <c r="D92" s="3">
+        <v>16.92120473728416</v>
+      </c>
+      <c r="E92" s="3">
+        <v>10.32111323137366</v>
+      </c>
+      <c r="F92" s="3">
+        <v>16.67203694034411</v>
       </c>
       <c r="G92">
-        <v>596.93026467962284</v>
+        <v>150.24102649458001</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>20</v>
-      </c>
-      <c r="K92" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K92" s="3">
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3988,22 +3988,22 @@
         <v>11</v>
       </c>
       <c r="B93" s="4">
-        <v>36.172267424839603</v>
+        <v>9852.2664549114888</v>
       </c>
       <c r="C93" s="4">
-        <v>7.9226762780483142</v>
+        <v>1001.413628399275</v>
       </c>
       <c r="D93" s="4">
-        <v>2.6281726988855278</v>
+        <v>71.751068197124368</v>
       </c>
       <c r="E93" s="4">
-        <v>5.4698707322238684</v>
+        <v>10.609320268415731</v>
       </c>
       <c r="F93" s="4">
-        <v>6.3124658145869086</v>
+        <v>3.959030532570786</v>
       </c>
       <c r="G93">
-        <v>58.505452948584221</v>
+        <v>10939.99950230887</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4018,30 +4018,30 @@
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="4">
-        <v>18.85112832848753</v>
-      </c>
-      <c r="C94" s="4">
-        <v>7.1180829052251351</v>
-      </c>
-      <c r="D94" s="4">
-        <v>3.308291674305575</v>
-      </c>
-      <c r="E94" s="4">
-        <v>2.5973306227482058</v>
-      </c>
-      <c r="F94" s="4">
-        <v>2.9547702413696522</v>
+      <c r="B94" s="3">
+        <v>36.895093361230927</v>
+      </c>
+      <c r="C94" s="3">
+        <v>32.363328075958279</v>
+      </c>
+      <c r="D94" s="3">
+        <v>24.693018747731148</v>
+      </c>
+      <c r="E94" s="3">
+        <v>10.61382750466294</v>
+      </c>
+      <c r="F94" s="3">
+        <v>15.591701187855881</v>
       </c>
       <c r="G94">
-        <v>34.829603772136089</v>
+        <v>120.1569688774392</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>10</v>
-      </c>
-      <c r="K94" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4064,22 +4064,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>21.200382706331141</v>
+        <v>16.960561986278709</v>
       </c>
       <c r="C95" s="4">
-        <v>6.0245648356830461</v>
+        <v>11.39039797738714</v>
       </c>
       <c r="D95" s="4">
-        <v>3.3688057165425889</v>
+        <v>6.2152930942080094</v>
       </c>
       <c r="E95" s="4">
-        <v>2.6462947519658231</v>
+        <v>10.64381050266809</v>
       </c>
       <c r="F95" s="4">
-        <v>1.800358833247502</v>
+        <v>13.549016197845591</v>
       </c>
       <c r="G95">
-        <v>35.0404068437701</v>
+        <v>58.759079758387529</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,36 +4088,36 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K95" s="4">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="4">
-        <v>16.638428414340972</v>
-      </c>
-      <c r="C96" s="4">
-        <v>12.296358392815041</v>
-      </c>
-      <c r="D96" s="4">
-        <v>4.6155302533272513</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2.3547798530955442</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0.97898419168339168</v>
+      <c r="B96" s="3">
+        <v>29.404297647828528</v>
+      </c>
+      <c r="C96" s="3">
+        <v>17.487783679775781</v>
+      </c>
+      <c r="D96" s="3">
+        <v>18.189989759599381</v>
+      </c>
+      <c r="E96" s="3">
+        <v>10.861723313311961</v>
+      </c>
+      <c r="F96" s="3">
+        <v>16.6704244905624</v>
       </c>
       <c r="G96">
-        <v>36.884081105262197</v>
+        <v>92.614218891078067</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>27</v>
-      </c>
-      <c r="K96" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -4140,22 +4140,22 @@
         <v>11</v>
       </c>
       <c r="B97" s="4">
-        <v>39.440214271704392</v>
+        <v>100.2139110403384</v>
       </c>
       <c r="C97" s="4">
-        <v>17.78594301265851</v>
+        <v>24.94056261040912</v>
       </c>
       <c r="D97" s="4">
-        <v>5.112236160333115</v>
+        <v>11.12531485804762</v>
       </c>
       <c r="E97" s="4">
-        <v>6.0381658031203909</v>
+        <v>10.979709795138071</v>
       </c>
       <c r="F97" s="4">
-        <v>6.6404946926294741</v>
+        <v>12.27738291199911</v>
       </c>
       <c r="G97">
-        <v>75.017053940445891</v>
+        <v>159.53688121593231</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,13 +4164,13 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K97" s="4">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4178,22 +4178,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>17.087622808819258</v>
+        <v>13.297090945818971</v>
       </c>
       <c r="C98" s="4">
-        <v>7.1655672819538161</v>
+        <v>7.1021158193197964</v>
       </c>
       <c r="D98" s="4">
-        <v>5.54496629130323</v>
+        <v>21.309999834012011</v>
       </c>
       <c r="E98" s="4">
-        <v>7.1537384840822371</v>
+        <v>11.24832032901333</v>
       </c>
       <c r="F98" s="4">
-        <v>6.685728134209783</v>
+        <v>11.32154383245445</v>
       </c>
       <c r="G98">
-        <v>43.637623000368343</v>
+        <v>64.279070760618552</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,13 +4202,13 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4216,22 +4216,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>21.924422710391759</v>
+        <v>30.626618567189229</v>
       </c>
       <c r="C99" s="4">
-        <v>8.9068996935703417</v>
+        <v>14.646017939593269</v>
       </c>
       <c r="D99" s="4">
-        <v>6.6568410088495868</v>
+        <v>22.478750691939901</v>
       </c>
       <c r="E99" s="4">
-        <v>9.899774588883945</v>
+        <v>11.26369671271355</v>
       </c>
       <c r="F99" s="4">
-        <v>9.2236823542864208</v>
+        <v>7.9285117899102584</v>
       </c>
       <c r="G99">
-        <v>56.611620355982048</v>
+        <v>86.943595701346197</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,36 +4240,36 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="4">
-        <v>56.197492902752487</v>
-      </c>
-      <c r="C100" s="4">
-        <v>12.55173560371575</v>
-      </c>
-      <c r="D100" s="4">
-        <v>7.4751059103391784</v>
-      </c>
-      <c r="E100" s="4">
-        <v>13.661626542393231</v>
-      </c>
-      <c r="F100" s="4">
-        <v>19.872920783514399</v>
+      <c r="B100" s="3">
+        <v>25.97279721097269</v>
+      </c>
+      <c r="C100" s="3">
+        <v>8.515318834340011</v>
+      </c>
+      <c r="D100" s="3">
+        <v>30.383529839030981</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11.38928748056574</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5.3841538619999882</v>
       </c>
       <c r="G100">
-        <v>109.758881742715</v>
+        <v>81.645087226909425</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4278,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>24</v>
-      </c>
-      <c r="K100" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4292,22 +4292,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>7.7099586470416357</v>
+        <v>161.3547601180349</v>
       </c>
       <c r="C101" s="4">
-        <v>6.4204628277246849</v>
+        <v>40.011887795425032</v>
       </c>
       <c r="D101" s="4">
-        <v>7.9600443603537254</v>
+        <v>15.87098787093376</v>
       </c>
       <c r="E101" s="4">
-        <v>4.6064507122240048</v>
+        <v>11.476863970257639</v>
       </c>
       <c r="F101" s="4">
-        <v>4.9467028125442916</v>
+        <v>7.3442799625724202</v>
       </c>
       <c r="G101">
-        <v>31.643619359888351</v>
+        <v>236.0587797172237</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K101" s="4">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,22 +4330,22 @@
         <v>11</v>
       </c>
       <c r="B102" s="4">
-        <v>10.64224144472483</v>
+        <v>14.35933069857199</v>
       </c>
       <c r="C102" s="4">
-        <v>5.4169061222582986</v>
+        <v>22.522531050587631</v>
       </c>
       <c r="D102" s="4">
-        <v>8.1667453177503297</v>
+        <v>10.165739393710849</v>
       </c>
       <c r="E102" s="4">
-        <v>7.2524379995978672</v>
+        <v>12.15352538779193</v>
       </c>
       <c r="F102" s="4">
-        <v>3.3996896408971571</v>
+        <v>11.39517735316524</v>
       </c>
       <c r="G102">
-        <v>34.878020525228479</v>
+        <v>70.59630388382763</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K102" s="4">
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4368,22 +4368,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>41.499080029085583</v>
+        <v>50.270210571592898</v>
       </c>
       <c r="C103" s="4">
-        <v>19.031911675266691</v>
+        <v>17.765844146891268</v>
       </c>
       <c r="D103" s="4">
-        <v>8.3003367097611189</v>
+        <v>14.1141996501165</v>
       </c>
       <c r="E103" s="4">
-        <v>5.4067036021737467</v>
+        <v>12.25917015191502</v>
       </c>
       <c r="F103" s="4">
-        <v>4.6737902095171142</v>
+        <v>14.949245809936389</v>
       </c>
       <c r="G103">
-        <v>78.911822225804229</v>
+        <v>109.3586703304521</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K103" s="4">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4406,22 +4406,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="4">
-        <v>32.241650375352577</v>
+        <v>131.8703370809032</v>
       </c>
       <c r="C104" s="4">
-        <v>16.946774069368889</v>
+        <v>30.35571433076861</v>
       </c>
       <c r="D104" s="4">
-        <v>8.317932907086675</v>
+        <v>6.5467420721124654</v>
       </c>
       <c r="E104" s="4">
-        <v>3.5818916557564329</v>
+        <v>12.50713820982465</v>
       </c>
       <c r="F104" s="4">
-        <v>2.2729540221245159</v>
+        <v>12.931235102582081</v>
       </c>
       <c r="G104">
-        <v>63.361203029689108</v>
+        <v>194.21116679619101</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K104" s="4">
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4444,22 +4444,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>13.88407060842488</v>
+        <v>33.864008558960151</v>
       </c>
       <c r="C105" s="4">
-        <v>8.0102400790497157</v>
+        <v>11.89621539652769</v>
       </c>
       <c r="D105" s="4">
-        <v>8.4154909027653133</v>
+        <v>12.346534292764019</v>
       </c>
       <c r="E105" s="4">
-        <v>20.588460343796719</v>
+        <v>12.64833762076953</v>
       </c>
       <c r="F105" s="4">
-        <v>9.8987324440487505</v>
+        <v>11.82900794915575</v>
       </c>
       <c r="G105">
-        <v>60.796994378085358</v>
+        <v>82.584103818177141</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K105" s="4">
         <v>1</v>
@@ -4482,22 +4482,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>460.99111348731691</v>
+        <v>12.270047891984779</v>
       </c>
       <c r="C106" s="4">
-        <v>43.181082955944888</v>
+        <v>7.4763232283805374</v>
       </c>
       <c r="D106" s="4">
-        <v>10.898637367756461</v>
+        <v>35.598027827395534</v>
       </c>
       <c r="E106" s="4">
-        <v>5.3649073014615931</v>
+        <v>12.68913720400178</v>
       </c>
       <c r="F106" s="4">
-        <v>2.9095065326275131</v>
+        <v>5.392975271007395</v>
       </c>
       <c r="G106">
-        <v>523.34524764510718</v>
+        <v>73.426511422770034</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,36 +4506,36 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="4">
-        <v>29.943671807175829</v>
-      </c>
-      <c r="C107" s="4">
-        <v>9.6510225169444777</v>
-      </c>
-      <c r="D107" s="4">
-        <v>11.32471610287311</v>
-      </c>
-      <c r="E107" s="4">
-        <v>15.180742276966219</v>
-      </c>
-      <c r="F107" s="4">
-        <v>7.6362555678927322</v>
+      <c r="B107" s="3">
+        <v>29.413923973830521</v>
+      </c>
+      <c r="C107" s="3">
+        <v>253.90485668372651</v>
+      </c>
+      <c r="D107" s="3">
+        <v>19.1768718063697</v>
+      </c>
+      <c r="E107" s="3">
+        <v>12.78673503531995</v>
+      </c>
+      <c r="F107" s="3">
+        <v>8.5922288070317414</v>
       </c>
       <c r="G107">
-        <v>73.736408271852369</v>
+        <v>323.87461630627831</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>19</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4558,22 +4558,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>33.864008558960151</v>
+        <v>56.197492902752487</v>
       </c>
       <c r="C108" s="4">
-        <v>11.89621539652769</v>
+        <v>12.55173560371575</v>
       </c>
       <c r="D108" s="4">
-        <v>12.346534292764019</v>
+        <v>7.4751059103391784</v>
       </c>
       <c r="E108" s="4">
-        <v>12.64833762076953</v>
+        <v>13.661626542393231</v>
       </c>
       <c r="F108" s="4">
-        <v>11.82900794915575</v>
+        <v>19.872920783514399</v>
       </c>
       <c r="G108">
-        <v>82.584103818177141</v>
+        <v>109.758881742715</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
@@ -4596,22 +4596,22 @@
         <v>11</v>
       </c>
       <c r="B109" s="4">
-        <v>19.767729811915679</v>
+        <v>31.336856404208</v>
       </c>
       <c r="C109" s="4">
-        <v>47.942946742507061</v>
+        <v>23.66945717267906</v>
       </c>
       <c r="D109" s="4">
-        <v>12.38652775205148</v>
+        <v>18.182310306595181</v>
       </c>
       <c r="E109" s="4">
-        <v>5.2132354146122726</v>
+        <v>13.749738115999589</v>
       </c>
       <c r="F109" s="4">
-        <v>4.5630817524040808</v>
+        <v>9.5709164149266002</v>
       </c>
       <c r="G109">
-        <v>89.873521473490541</v>
+        <v>96.509278414408428</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K109" s="4">
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4634,22 +4634,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>19.7164256554837</v>
+        <v>7.4959343486003558</v>
       </c>
       <c r="C110" s="4">
-        <v>16.207928326756338</v>
+        <v>4.6694009280326254</v>
       </c>
       <c r="D110" s="4">
-        <v>13.01686105867968</v>
+        <v>15.289738284844921</v>
       </c>
       <c r="E110" s="4">
-        <v>5.6785142157501411</v>
+        <v>14.128023045586909</v>
       </c>
       <c r="F110" s="4">
-        <v>2.5685291480400081</v>
+        <v>6.3222534757310367</v>
       </c>
       <c r="G110">
-        <v>57.18825840470987</v>
+        <v>47.905350082795827</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,36 +4658,36 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K110" s="4">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="4">
-        <v>35.864103015634612</v>
-      </c>
-      <c r="C111" s="4">
-        <v>14.17455923786232</v>
-      </c>
-      <c r="D111" s="4">
-        <v>13.811572595150819</v>
-      </c>
-      <c r="E111" s="4">
-        <v>8.3182856476347329</v>
-      </c>
-      <c r="F111" s="4">
-        <v>8.0700055627512484</v>
+      <c r="B111" s="3">
+        <v>13.26900314157399</v>
+      </c>
+      <c r="C111" s="3">
+        <v>70.662193282591758</v>
+      </c>
+      <c r="D111" s="3">
+        <v>14.981579528717781</v>
+      </c>
+      <c r="E111" s="3">
+        <v>14.14369548599938</v>
+      </c>
+      <c r="F111" s="3">
+        <v>27.230745941681459</v>
       </c>
       <c r="G111">
-        <v>80.238526059033717</v>
+        <v>140.28721738056441</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>3</v>
-      </c>
-      <c r="K111" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
         <v>13</v>
@@ -4709,23 +4709,23 @@
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="4">
-        <v>50.87587143211011</v>
-      </c>
-      <c r="C112" s="4">
-        <v>19.008885758054259</v>
-      </c>
-      <c r="D112" s="4">
-        <v>18.118663013795999</v>
-      </c>
-      <c r="E112" s="4">
-        <v>23.515022402005229</v>
-      </c>
-      <c r="F112" s="4">
-        <v>10.410521680688349</v>
+      <c r="B112" s="3">
+        <v>2002.004891358356</v>
+      </c>
+      <c r="C112" s="3">
+        <v>182.9157722936402</v>
+      </c>
+      <c r="D112" s="3">
+        <v>63.242548790417374</v>
+      </c>
+      <c r="E112" s="3">
+        <v>14.258293106577529</v>
+      </c>
+      <c r="F112" s="3">
+        <v>41.669050399890907</v>
       </c>
       <c r="G112">
-        <v>121.92896428665399</v>
+        <v>2304.090555948882</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4734,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>26</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4748,22 +4748,22 @@
         <v>11</v>
       </c>
       <c r="B113" s="4">
-        <v>114.1727229268844</v>
+        <v>26.027223533209309</v>
       </c>
       <c r="C113" s="4">
-        <v>48.010476856095387</v>
+        <v>17.25478825136716</v>
       </c>
       <c r="D113" s="4">
-        <v>20.751955443352561</v>
+        <v>44.155584143733783</v>
       </c>
       <c r="E113" s="4">
-        <v>23.16702594344936</v>
+        <v>14.293823955704919</v>
       </c>
       <c r="F113" s="4">
-        <v>26.356870743350171</v>
+        <v>6.4348416306947662</v>
       </c>
       <c r="G113">
-        <v>232.45905191313199</v>
+        <v>108.1662615147099</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K113" s="4">
         <v>1</v>
@@ -4786,22 +4786,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>48.523183002789963</v>
+        <v>376.21465285467309</v>
       </c>
       <c r="C114" s="4">
-        <v>37.131991322359433</v>
+        <v>95.875361807597329</v>
       </c>
       <c r="D114" s="4">
-        <v>30.158048662620871</v>
+        <v>30.61688628652443</v>
       </c>
       <c r="E114" s="4">
-        <v>24.874706531961529</v>
+        <v>14.90636793708163</v>
       </c>
       <c r="F114" s="4">
-        <v>18.477429841099909</v>
+        <v>6.0217818497658104</v>
       </c>
       <c r="G114">
-        <v>159.1653593608317</v>
+        <v>523.63505073564238</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>30.248387031576581</v>
+        <v>29.943671807175829</v>
       </c>
       <c r="C115" s="4">
-        <v>17.90853688782672</v>
+        <v>9.6510225169444777</v>
       </c>
       <c r="D115" s="4">
-        <v>37.073787592606429</v>
+        <v>11.32471610287311</v>
       </c>
       <c r="E115" s="4">
-        <v>18.01959715330835</v>
+        <v>15.180742276966219</v>
       </c>
       <c r="F115" s="4">
-        <v>17.277758687572749</v>
+        <v>7.6362555678927322</v>
       </c>
       <c r="G115">
-        <v>120.5280673528908</v>
+        <v>73.736408271852369</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
@@ -4862,22 +4862,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>26.027223533209309</v>
+        <v>25.193567606112001</v>
       </c>
       <c r="C116" s="4">
-        <v>17.25478825136716</v>
+        <v>9.6369217075471383</v>
       </c>
       <c r="D116" s="4">
-        <v>44.155584143733783</v>
+        <v>11.030905592833671</v>
       </c>
       <c r="E116" s="4">
-        <v>14.293823955704919</v>
+        <v>15.64171679457419</v>
       </c>
       <c r="F116" s="4">
-        <v>6.4348416306947662</v>
+        <v>6.5746229898473354</v>
       </c>
       <c r="G116">
-        <v>108.1662615147099</v>
+        <v>68.077734690914326</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4900,22 +4900,22 @@
         <v>11</v>
       </c>
       <c r="B117" s="4">
-        <v>101.4074239392922</v>
+        <v>12.61543240542427</v>
       </c>
       <c r="C117" s="4">
-        <v>59.1830278131348</v>
+        <v>8.9993499199740743</v>
       </c>
       <c r="D117" s="4">
-        <v>56.974126589818141</v>
+        <v>16.06886231279999</v>
       </c>
       <c r="E117" s="4">
-        <v>76.787525111048538</v>
+        <v>15.642333195293411</v>
       </c>
       <c r="F117" s="4">
-        <v>38.509640529151412</v>
+        <v>8.1510277724530624</v>
       </c>
       <c r="G117">
-        <v>332.86174398244509</v>
+        <v>61.477005605944782</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K117" s="4">
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4938,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>8780.7388782443195</v>
+        <v>14.041714703873589</v>
       </c>
       <c r="C118" s="4">
-        <v>2815.4572601190048</v>
+        <v>9.0711472500932011</v>
       </c>
       <c r="D118" s="4">
-        <v>1203.3655958160591</v>
+        <v>10.05618842659791</v>
       </c>
       <c r="E118" s="4">
-        <v>1890.0097610599139</v>
+        <v>16.448453211831328</v>
       </c>
       <c r="F118" s="4">
-        <v>894.70454437064438</v>
+        <v>23.317915210608511</v>
       </c>
       <c r="G118">
-        <v>15584.27603960994</v>
+        <v>72.935418803004538</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,36 +4962,36 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="4">
-        <v>54.279862453403773</v>
-      </c>
-      <c r="C119" s="4">
-        <v>17.482557018333811</v>
-      </c>
-      <c r="D119" s="4">
-        <v>4.8855586234365633</v>
-      </c>
-      <c r="E119" s="4">
-        <v>2.6165399362781412</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.5544107034864709</v>
+      <c r="B119" s="3">
+        <v>35.262792651458398</v>
+      </c>
+      <c r="C119" s="3">
+        <v>25.711625262594328</v>
+      </c>
+      <c r="D119" s="3">
+        <v>89.904643136989449</v>
+      </c>
+      <c r="E119" s="3">
+        <v>16.538464876408199</v>
+      </c>
+      <c r="F119" s="3">
+        <v>7.3216764304599362</v>
       </c>
       <c r="G119">
-        <v>80.818928734938766</v>
+        <v>174.7392023579103</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>26</v>
-      </c>
-      <c r="K119" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K119" s="3">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5014,22 +5014,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>26.461833838799269</v>
+        <v>16.93217775678373</v>
       </c>
       <c r="C120" s="4">
-        <v>14.47893738775617</v>
+        <v>7.5361740305828819</v>
       </c>
       <c r="D120" s="4">
-        <v>7.8392898847150976</v>
+        <v>9.8779857075687119</v>
       </c>
       <c r="E120" s="4">
-        <v>3.271996619371726</v>
+        <v>16.89431648944133</v>
       </c>
       <c r="F120" s="4">
-        <v>2.2378734183225819</v>
+        <v>9.9452845421040319</v>
       </c>
       <c r="G120">
-        <v>54.28993114896484</v>
+        <v>61.185938526480683</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,36 +5038,36 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K120" s="4">
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="4">
-        <v>21.90867720824642</v>
-      </c>
-      <c r="C121" s="4">
-        <v>30.086532839389779</v>
-      </c>
-      <c r="D121" s="4">
-        <v>3.0838146622617861</v>
-      </c>
-      <c r="E121" s="4">
-        <v>3.1732671764660569</v>
-      </c>
-      <c r="F121" s="4">
-        <v>3.1371406136041871</v>
+      <c r="B121" s="3">
+        <v>45.250494344181391</v>
+      </c>
+      <c r="C121" s="3">
+        <v>45.034845216752309</v>
+      </c>
+      <c r="D121" s="3">
+        <v>19.94981245278484</v>
+      </c>
+      <c r="E121" s="3">
+        <v>16.902490565899381</v>
+      </c>
+      <c r="F121" s="3">
+        <v>9.0472641164072591</v>
       </c>
       <c r="G121">
-        <v>61.38943249996823</v>
+        <v>136.18490669602519</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>28</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -5090,22 +5090,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>9852.2664549114888</v>
+        <v>30.248387031576581</v>
       </c>
       <c r="C122" s="4">
-        <v>1001.413628399275</v>
+        <v>17.90853688782672</v>
       </c>
       <c r="D122" s="4">
-        <v>71.751068197124368</v>
+        <v>37.073787592606429</v>
       </c>
       <c r="E122" s="4">
-        <v>10.609320268415731</v>
+        <v>18.01959715330835</v>
       </c>
       <c r="F122" s="4">
-        <v>3.959030532570786</v>
+        <v>17.277758687572749</v>
       </c>
       <c r="G122">
-        <v>10939.99950230887</v>
+        <v>120.5280673528908</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>52.656885183178723</v>
+        <v>21.887980744032241</v>
       </c>
       <c r="C123" s="4">
-        <v>20.121072319059781</v>
+        <v>26.573113346595399</v>
       </c>
       <c r="D123" s="4">
-        <v>7.0787765138357273</v>
+        <v>179.93782944725851</v>
       </c>
       <c r="E123" s="4">
-        <v>7.4107339136454513</v>
+        <v>18.241889290132761</v>
       </c>
       <c r="F123" s="4">
-        <v>5.9688005019609696</v>
+        <v>6.7883406962363972</v>
       </c>
       <c r="G123">
-        <v>93.236268431680628</v>
+        <v>253.4291535242553</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,13 +5152,13 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5166,22 +5166,22 @@
         <v>11</v>
       </c>
       <c r="B124" s="4">
-        <v>39.869803178246279</v>
+        <v>24.707034879516691</v>
       </c>
       <c r="C124" s="4">
-        <v>12.37005367024808</v>
+        <v>32.649770790522837</v>
       </c>
       <c r="D124" s="4">
-        <v>3.6551062227036439</v>
+        <v>114.4158038207118</v>
       </c>
       <c r="E124" s="4">
-        <v>6.1740563438777656</v>
+        <v>19.875368151936449</v>
       </c>
       <c r="F124" s="4">
-        <v>6.5019214647755668</v>
+        <v>11.152934324046591</v>
       </c>
       <c r="G124">
-        <v>68.570940879851321</v>
+        <v>202.80091196673439</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K124" s="4">
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5204,22 +5204,22 @@
         <v>11</v>
       </c>
       <c r="B125" s="4">
-        <v>25.193567606112001</v>
+        <v>73.562953601484779</v>
       </c>
       <c r="C125" s="4">
-        <v>9.6369217075471383</v>
+        <v>26.669425002807699</v>
       </c>
       <c r="D125" s="4">
-        <v>11.030905592833671</v>
+        <v>58.624200295823307</v>
       </c>
       <c r="E125" s="4">
-        <v>15.64171679457419</v>
+        <v>19.878963672044119</v>
       </c>
       <c r="F125" s="4">
-        <v>6.5746229898473354</v>
+        <v>9.9195069780865488</v>
       </c>
       <c r="G125">
-        <v>68.077734690914326</v>
+        <v>188.65504955024639</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K125" s="4">
         <v>1</v>
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>22.296976631366611</v>
+        <v>13.88407060842488</v>
       </c>
       <c r="C126" s="4">
-        <v>8.3958857157461075</v>
+        <v>8.0102400790497157</v>
       </c>
       <c r="D126" s="4">
-        <v>7.6003789720369346</v>
+        <v>8.4154909027653133</v>
       </c>
       <c r="E126" s="4">
-        <v>9.933251503196848</v>
+        <v>20.588460343796719</v>
       </c>
       <c r="F126" s="4">
-        <v>6.7094395663659139</v>
+        <v>9.8987324440487505</v>
       </c>
       <c r="G126">
-        <v>54.935932388712423</v>
+        <v>60.796994378085358</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,13 +5266,13 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5280,22 +5280,22 @@
         <v>11</v>
       </c>
       <c r="B127" s="4">
-        <v>20.892300874176421</v>
+        <v>410.32566955803651</v>
       </c>
       <c r="C127" s="4">
-        <v>48.640659423877302</v>
+        <v>89.705685687897088</v>
       </c>
       <c r="D127" s="4">
-        <v>13.10997228675865</v>
+        <v>58.446140516501671</v>
       </c>
       <c r="E127" s="4">
-        <v>6.951037488073319</v>
+        <v>21.602718447664689</v>
       </c>
       <c r="F127" s="4">
-        <v>7.0566189324099016</v>
+        <v>16.850050469522891</v>
       </c>
       <c r="G127">
-        <v>96.650589005295629</v>
+        <v>596.93026467962284</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K127" s="4">
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5318,22 +5318,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>30.626618567189229</v>
+        <v>1623.8846320658799</v>
       </c>
       <c r="C128" s="4">
-        <v>14.646017939593269</v>
+        <v>282.3373581697291</v>
       </c>
       <c r="D128" s="4">
-        <v>22.478750691939901</v>
+        <v>42.329759354563834</v>
       </c>
       <c r="E128" s="4">
-        <v>11.26369671271355</v>
+        <v>22.928973872586639</v>
       </c>
       <c r="F128" s="4">
-        <v>7.9285117899102584</v>
+        <v>12.330813508556201</v>
       </c>
       <c r="G128">
-        <v>86.943595701346197</v>
+        <v>1983.811536971315</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,13 +5342,13 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,22 +5356,22 @@
         <v>11</v>
       </c>
       <c r="B129" s="4">
-        <v>26.965434761979321</v>
+        <v>114.1727229268844</v>
       </c>
       <c r="C129" s="4">
-        <v>12.318429301787621</v>
+        <v>48.010476856095387</v>
       </c>
       <c r="D129" s="4">
-        <v>7.682071410394899</v>
+        <v>20.751955443352561</v>
       </c>
       <c r="E129" s="4">
-        <v>9.2868402516944997</v>
+        <v>23.16702594344936</v>
       </c>
       <c r="F129" s="4">
-        <v>8.3482206400843175</v>
+        <v>26.356870743350171</v>
       </c>
       <c r="G129">
-        <v>64.600996365940645</v>
+        <v>232.45905191313199</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K129" s="4">
         <v>1</v>
       </c>
       <c r="L129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5394,22 +5394,22 @@
         <v>11</v>
       </c>
       <c r="B130" s="4">
-        <v>46.960903533867423</v>
+        <v>769.03502786863919</v>
       </c>
       <c r="C130" s="4">
-        <v>12.79689884962858</v>
+        <v>151.30138321748109</v>
       </c>
       <c r="D130" s="4">
-        <v>4.1468211319256918</v>
+        <v>53.938154188263738</v>
       </c>
       <c r="E130" s="4">
-        <v>9.1040397636231365</v>
+        <v>23.185452059424311</v>
       </c>
       <c r="F130" s="4">
-        <v>8.4171347331774431</v>
+        <v>14.60060572506776</v>
       </c>
       <c r="G130">
-        <v>81.425798012222273</v>
+        <v>1012.060623058876</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K130" s="4">
         <v>1</v>
@@ -5432,22 +5432,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>73.562953601484779</v>
+        <v>50.87587143211011</v>
       </c>
       <c r="C131" s="4">
-        <v>26.669425002807699</v>
+        <v>19.008885758054259</v>
       </c>
       <c r="D131" s="4">
-        <v>58.624200295823307</v>
+        <v>18.118663013795999</v>
       </c>
       <c r="E131" s="4">
-        <v>19.878963672044119</v>
+        <v>23.515022402005229</v>
       </c>
       <c r="F131" s="4">
-        <v>9.9195069780865488</v>
+        <v>10.410521680688349</v>
       </c>
       <c r="G131">
-        <v>188.65504955024639</v>
+        <v>121.92896428665399</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5470,22 +5470,22 @@
         <v>11</v>
       </c>
       <c r="B132" s="4">
-        <v>1684.2162086732551</v>
+        <v>200.6681226300006</v>
       </c>
       <c r="C132" s="4">
-        <v>257.25769267391991</v>
+        <v>17.93465538915234</v>
       </c>
       <c r="D132" s="4">
-        <v>65.286469460628183</v>
+        <v>51.119358140470403</v>
       </c>
       <c r="E132" s="4">
-        <v>30.37841309001195</v>
+        <v>23.610313787648739</v>
       </c>
       <c r="F132" s="4">
-        <v>11.389720928061539</v>
+        <v>10.59495978268551</v>
       </c>
       <c r="G132">
-        <v>2048.528504825877</v>
+        <v>303.92740972995762</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5508,22 +5508,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>294.04778860031388</v>
+        <v>48.523183002789963</v>
       </c>
       <c r="C133" s="4">
-        <v>105.56336846137479</v>
+        <v>37.131991322359433</v>
       </c>
       <c r="D133" s="4">
-        <v>18.541984097933721</v>
+        <v>30.158048662620871</v>
       </c>
       <c r="E133" s="4">
-        <v>9.5889466222101021</v>
+        <v>24.874706531961529</v>
       </c>
       <c r="F133" s="4">
-        <v>11.427653494530601</v>
+        <v>18.477429841099909</v>
       </c>
       <c r="G133">
-        <v>439.16974127636308</v>
+        <v>159.1653593608317</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>100.2139110403384</v>
+        <v>143.52046920368431</v>
       </c>
       <c r="C134" s="4">
-        <v>24.94056261040912</v>
+        <v>31.96275073311573</v>
       </c>
       <c r="D134" s="4">
-        <v>11.12531485804762</v>
+        <v>11.86421637308546</v>
       </c>
       <c r="E134" s="4">
-        <v>10.979709795138071</v>
+        <v>27.431925703946579</v>
       </c>
       <c r="F134" s="4">
-        <v>12.27738291199911</v>
+        <v>46.527738357102919</v>
       </c>
       <c r="G134">
-        <v>159.53688121593231</v>
+        <v>261.30710037093507</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -5584,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>131.8703370809032</v>
+        <v>9.6674999034570348</v>
       </c>
       <c r="C135" s="4">
-        <v>30.35571433076861</v>
+        <v>20.151765500999819</v>
       </c>
       <c r="D135" s="4">
-        <v>6.5467420721124654</v>
+        <v>47.241072342928682</v>
       </c>
       <c r="E135" s="4">
-        <v>12.50713820982465</v>
+        <v>27.68256078645376</v>
       </c>
       <c r="F135" s="4">
-        <v>12.931235102582081</v>
+        <v>9.0347107089741598</v>
       </c>
       <c r="G135">
-        <v>194.21116679619101</v>
+        <v>113.7776092428134</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,36 +5608,36 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="4">
-        <v>41.207160591476253</v>
-      </c>
-      <c r="C136" s="4">
-        <v>7.8773079619755748</v>
-      </c>
-      <c r="D136" s="4">
-        <v>4.8662218199527398</v>
-      </c>
-      <c r="E136" s="4">
-        <v>7.1599542207182063</v>
-      </c>
-      <c r="F136" s="4">
-        <v>13.54606079203308</v>
+      <c r="B136" s="3">
+        <v>42.495149791121527</v>
+      </c>
+      <c r="C136" s="3">
+        <v>57.871040029976903</v>
+      </c>
+      <c r="D136" s="3">
+        <v>24.39680681980802</v>
+      </c>
+      <c r="E136" s="3">
+        <v>29.708598118930531</v>
+      </c>
+      <c r="F136" s="3">
+        <v>72.465202764840441</v>
       </c>
       <c r="G136">
-        <v>74.656705386155835</v>
+        <v>226.9367975246775</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>12</v>
-      </c>
-      <c r="K136" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
       </c>
       <c r="L136" t="s">
         <v>14</v>
@@ -5660,22 +5660,22 @@
         <v>11</v>
       </c>
       <c r="B137" s="4">
-        <v>16.960561986278709</v>
+        <v>1684.2162086732551</v>
       </c>
       <c r="C137" s="4">
-        <v>11.39039797738714</v>
+        <v>257.25769267391991</v>
       </c>
       <c r="D137" s="4">
-        <v>6.2152930942080094</v>
+        <v>65.286469460628183</v>
       </c>
       <c r="E137" s="4">
-        <v>10.64381050266809</v>
+        <v>30.37841309001195</v>
       </c>
       <c r="F137" s="4">
-        <v>13.549016197845591</v>
+        <v>11.389720928061539</v>
       </c>
       <c r="G137">
-        <v>58.759079758387529</v>
+        <v>2048.528504825877</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K137" s="4">
         <v>1</v>
@@ -5697,23 +5697,23 @@
       <c r="A138" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="4">
-        <v>769.03502786863919</v>
-      </c>
-      <c r="C138" s="4">
-        <v>151.30138321748109</v>
-      </c>
-      <c r="D138" s="4">
-        <v>53.938154188263738</v>
-      </c>
-      <c r="E138" s="4">
-        <v>23.185452059424311</v>
-      </c>
-      <c r="F138" s="4">
-        <v>14.60060572506776</v>
+      <c r="B138" s="3">
+        <v>45.036257955100737</v>
+      </c>
+      <c r="C138" s="3">
+        <v>31.549040285948191</v>
+      </c>
+      <c r="D138" s="3">
+        <v>94.079267134660853</v>
+      </c>
+      <c r="E138" s="3">
+        <v>35.520397097142798</v>
+      </c>
+      <c r="F138" s="3">
+        <v>45.536259173108277</v>
       </c>
       <c r="G138">
-        <v>1012.060623058876</v>
+        <v>251.7212216459609</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>19</v>
-      </c>
-      <c r="K138" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5736,22 +5736,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>50.270210571592898</v>
+        <v>1232.373643501282</v>
       </c>
       <c r="C139" s="4">
-        <v>17.765844146891268</v>
+        <v>214.22631824489</v>
       </c>
       <c r="D139" s="4">
-        <v>14.1141996501165</v>
+        <v>64.679533325821296</v>
       </c>
       <c r="E139" s="4">
-        <v>12.25917015191502</v>
+        <v>38.531410378457622</v>
       </c>
       <c r="F139" s="4">
-        <v>14.949245809936389</v>
+        <v>21.607670734805911</v>
       </c>
       <c r="G139">
-        <v>109.3586703304521</v>
+        <v>1571.4185761852571</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K139" s="4">
         <v>1</v>
@@ -5773,23 +5773,23 @@
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
-        <v>1232.373643501282</v>
-      </c>
-      <c r="C140" s="4">
-        <v>214.22631824489</v>
-      </c>
-      <c r="D140" s="4">
-        <v>64.679533325821296</v>
-      </c>
-      <c r="E140" s="4">
-        <v>38.531410378457622</v>
-      </c>
-      <c r="F140" s="4">
-        <v>21.607670734805911</v>
+      <c r="B140" s="3">
+        <v>1643.8536543895041</v>
+      </c>
+      <c r="C140" s="3">
+        <v>473.72333848662743</v>
+      </c>
+      <c r="D140" s="3">
+        <v>70.308151179660712</v>
+      </c>
+      <c r="E140" s="3">
+        <v>38.836253593327839</v>
+      </c>
+      <c r="F140" s="3">
+        <v>25.54940307341894</v>
       </c>
       <c r="G140">
-        <v>1571.4185761852571</v>
+        <v>2252.2708007225378</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>20</v>
-      </c>
-      <c r="K140" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>14.041714703873589</v>
+        <v>810.88714487394611</v>
       </c>
       <c r="C141" s="4">
-        <v>9.0711472500932011</v>
+        <v>172.14626341127061</v>
       </c>
       <c r="D141" s="4">
-        <v>10.05618842659791</v>
+        <v>39.43671926471238</v>
       </c>
       <c r="E141" s="4">
-        <v>16.448453211831328</v>
+        <v>41.370965258747972</v>
       </c>
       <c r="F141" s="4">
-        <v>23.317915210608511</v>
+        <v>91.5936261948479</v>
       </c>
       <c r="G141">
-        <v>72.935418803004538</v>
+        <v>1155.4347190035251</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5850,22 +5850,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>143.52046920368431</v>
+        <v>101.4074239392922</v>
       </c>
       <c r="C142" s="4">
-        <v>31.96275073311573</v>
+        <v>59.1830278131348</v>
       </c>
       <c r="D142" s="4">
-        <v>11.86421637308546</v>
+        <v>56.974126589818141</v>
       </c>
       <c r="E142" s="4">
-        <v>27.431925703946579</v>
+        <v>76.787525111048538</v>
       </c>
       <c r="F142" s="4">
-        <v>46.527738357102919</v>
+        <v>38.509640529151412</v>
       </c>
       <c r="G142">
-        <v>261.30710037093507</v>
+        <v>332.86174398244509</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>810.88714487394611</v>
+        <v>2153.4061149964091</v>
       </c>
       <c r="C143" s="4">
-        <v>172.14626341127061</v>
+        <v>279.51241837830833</v>
       </c>
       <c r="D143" s="4">
-        <v>39.43671926471238</v>
+        <v>143.77423237033119</v>
       </c>
       <c r="E143" s="4">
-        <v>41.370965258747972</v>
+        <v>132.2118595893576</v>
       </c>
       <c r="F143" s="4">
-        <v>91.5936261948479</v>
+        <v>839.16739656002221</v>
       </c>
       <c r="G143">
-        <v>1155.4347190035251</v>
+        <v>3548.0720218944271</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5964,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>2153.4061149964091</v>
+        <v>8780.7388782443195</v>
       </c>
       <c r="C145" s="4">
-        <v>279.51241837830833</v>
+        <v>2815.4572601190048</v>
       </c>
       <c r="D145" s="4">
-        <v>143.77423237033119</v>
+        <v>1203.3655958160591</v>
       </c>
       <c r="E145" s="4">
-        <v>132.2118595893576</v>
+        <v>1890.0097610599139</v>
       </c>
       <c r="F145" s="4">
-        <v>839.16739656002221</v>
+        <v>894.70454437064438</v>
       </c>
       <c r="G145">
-        <v>3548.0720218944271</v>
+        <v>15584.27603960994</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,16 +5988,20 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L150">
+    <sortCondition ref="E2:E150"/>
+    <sortCondition ref="F2:F150"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>